--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
@@ -1170,13 +1170,13 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.9840089901209306</v>
+        <v>0.1191828382616863</v>
       </c>
       <c r="E2">
-        <v>0.01599100987906946</v>
+        <v>0.8435316415357005</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.03728552020261317</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.2012078569334506</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7776722368806801</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.02111990618586925</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8847262247838616</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>134</v>
       </c>
       <c r="D6">
-        <v>0.1710892165648087</v>
+        <v>0.4102508137394698</v>
       </c>
       <c r="E6">
-        <v>0.6642307896088698</v>
+        <v>0.06697254363555528</v>
       </c>
       <c r="F6">
-        <v>0.1609400807646147</v>
+        <v>0.5212597355029981</v>
       </c>
       <c r="G6">
-        <v>0.003272855856125648</v>
+        <v>0.00151690712197684</v>
       </c>
       <c r="H6">
-        <v>0.0002770092674285477</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0001900479381526419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1315,16 +1315,16 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>0.9748973357371795</v>
+        <v>0.2214292868589744</v>
       </c>
       <c r="E7">
-        <v>0.02510266426282051</v>
+        <v>0.7160581931089743</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.06191155849358974</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006009615384615385</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <v>0.9291073368150099</v>
+        <v>0.2097096371021738</v>
       </c>
       <c r="E8">
-        <v>0.07088150396524275</v>
+        <v>0.6541013852311446</v>
       </c>
       <c r="F8">
-        <v>1.115921974735527E-05</v>
+        <v>0.1361889776666815</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>0.04947179277957656</v>
+        <v>0.1256447426671644</v>
       </c>
       <c r="E9">
-        <v>0.4895929722832267</v>
+        <v>0.8235275735453685</v>
       </c>
       <c r="F9">
-        <v>0.4002152759090633</v>
+        <v>0.05082768378746712</v>
       </c>
       <c r="G9">
-        <v>0.05892483572191214</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0017951233062213</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1402,16 +1402,16 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>0.03099906936906517</v>
+        <v>0.04155720085980415</v>
       </c>
       <c r="E10">
-        <v>0.8594335504805515</v>
+        <v>0.6995132717854113</v>
       </c>
       <c r="F10">
-        <v>0.1085873351836143</v>
+        <v>0.2589295273547845</v>
       </c>
       <c r="G10">
-        <v>0.0009800449667690635</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.8807712177025978</v>
+        <v>0.2642851023729975</v>
       </c>
       <c r="E11">
-        <v>0.1192287822974022</v>
+        <v>0.7254970678255181</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01021782980148439</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.4894298526585522</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5105701473414478</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.802124786652347</v>
+        <v>0.6737864250731955</v>
       </c>
       <c r="E13">
-        <v>0.1978752133476531</v>
+        <v>0.3262091185789598</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4.456347844687365E-06</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.0766971013436145</v>
+        <v>0.7996286083104251</v>
       </c>
       <c r="E14">
-        <v>0.5351556971742496</v>
+        <v>0.2001569623076032</v>
       </c>
       <c r="F14">
-        <v>0.3217598648237176</v>
+        <v>0.0002144293819716353</v>
       </c>
       <c r="G14">
-        <v>0.06079930696423747</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.005570875343623084</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.715435055773082E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1547,16 +1547,16 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.1131363034847817</v>
+        <v>0.3612880458756065</v>
       </c>
       <c r="E15">
-        <v>0.8065990295544773</v>
+        <v>0.6384649316277018</v>
       </c>
       <c r="F15">
-        <v>0.07982355535950596</v>
+        <v>0.000247022496691663</v>
       </c>
       <c r="G15">
-        <v>0.0004411116012351125</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>144</v>
       </c>
       <c r="D16">
-        <v>0.02646946486952637</v>
+        <v>0.1382532891655116</v>
       </c>
       <c r="E16">
-        <v>0.9189528478876555</v>
+        <v>0.8334674542567579</v>
       </c>
       <c r="F16">
-        <v>0.05412511920747747</v>
+        <v>0.02827925657773048</v>
       </c>
       <c r="G16">
-        <v>0.0004525680353406632</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>145</v>
       </c>
       <c r="D17">
-        <v>0.9783338978660663</v>
+        <v>0.04577098567415171</v>
       </c>
       <c r="E17">
-        <v>0.02166610213393373</v>
+        <v>0.9191854788897965</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.03504353543605172</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>146</v>
       </c>
       <c r="D18">
-        <v>0.9874551971326165</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0.01254480286738351</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.2601993892974005</v>
+        <v>0.1781881517865602</v>
       </c>
       <c r="E19">
-        <v>0.7180346744984295</v>
+        <v>0.8215290885373017</v>
       </c>
       <c r="F19">
-        <v>0.02163986036919086</v>
+        <v>0.0002827596761381441</v>
       </c>
       <c r="G19">
-        <v>0.000126075834979121</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <v>0.05218809459092145</v>
+        <v>0.3651807556401196</v>
       </c>
       <c r="E20">
-        <v>0.8283500951345474</v>
+        <v>0.3632780646914923</v>
       </c>
       <c r="F20">
-        <v>0.1163359608589291</v>
+        <v>0.2715411796683881</v>
       </c>
       <c r="G20">
-        <v>0.003125849415602066</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>149</v>
       </c>
       <c r="D21">
-        <v>0.146322500388742</v>
+        <v>0.1513984882850131</v>
       </c>
       <c r="E21">
-        <v>0.8326246610795054</v>
+        <v>0.4945334827532588</v>
       </c>
       <c r="F21">
-        <v>0.02101709213811691</v>
+        <v>0.3540644543223646</v>
       </c>
       <c r="G21">
-        <v>3.574639363571208E-05</v>
+        <v>3.574639363571208E-06</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.3483224603914259</v>
+        <v>0.1278765502903434</v>
       </c>
       <c r="E22">
-        <v>0.6473761559968456</v>
+        <v>0.6388630009319665</v>
       </c>
       <c r="F22">
-        <v>0.004235668028771477</v>
+        <v>0.2332604487776901</v>
       </c>
       <c r="G22">
-        <v>6.571558295696226E-05</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1779,19 +1779,19 @@
         <v>151</v>
       </c>
       <c r="D23">
-        <v>0.2727171725940534</v>
+        <v>0.1562514293743851</v>
       </c>
       <c r="E23">
-        <v>0.6699236840997805</v>
+        <v>0.4900424454611134</v>
       </c>
       <c r="F23">
-        <v>0.05327489933857899</v>
+        <v>0.3530183604068201</v>
       </c>
       <c r="G23">
-        <v>0.004055187163526698</v>
+        <v>0.0006877647576814355</v>
       </c>
       <c r="H23">
-        <v>2.905680406040433E-05</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1808,22 +1808,22 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.1788096392167154</v>
+        <v>0.8225665427071264</v>
       </c>
       <c r="E24">
-        <v>0.6635522027534754</v>
+        <v>0.1694366387028702</v>
       </c>
       <c r="F24">
-        <v>0.1521720016032035</v>
+        <v>0.007996818590003374</v>
       </c>
       <c r="G24">
-        <v>0.004938375747707892</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0005175151773209183</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.026550157687031E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1837,13 +1837,13 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>0.5009121130464576</v>
+        <v>0.1339185672880147</v>
       </c>
       <c r="E25">
-        <v>0.485355261086572</v>
+        <v>0.7534701965904567</v>
       </c>
       <c r="F25">
-        <v>0.01373262586697039</v>
+        <v>0.1126112361215287</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1866,19 +1866,19 @@
         <v>154</v>
       </c>
       <c r="D26">
-        <v>0.01160248864973936</v>
+        <v>0.385488481587355</v>
       </c>
       <c r="E26">
-        <v>0.4119724230704557</v>
+        <v>0.6144274424079368</v>
       </c>
       <c r="F26">
-        <v>0.5184967210358163</v>
+        <v>8.407600470825626E-05</v>
       </c>
       <c r="G26">
-        <v>0.05666722717336472</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.001261140070623844</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.8752640894336243</v>
+        <v>0.13360127042758</v>
       </c>
       <c r="E27">
-        <v>0.1247359105663756</v>
+        <v>0.810140684463846</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.05625804510857399</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>156</v>
       </c>
       <c r="D28">
-        <v>0.1655538811831091</v>
+        <v>0.1161330062807299</v>
       </c>
       <c r="E28">
-        <v>0.5443555927095135</v>
+        <v>0.7370453070517968</v>
       </c>
       <c r="F28">
-        <v>0.280905921045395</v>
+        <v>0.1468216866674733</v>
       </c>
       <c r="G28">
-        <v>0.009162606007941658</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>2.199905404067625E-05</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1953,16 +1953,16 @@
         <v>157</v>
       </c>
       <c r="D29">
-        <v>0.6322101656196459</v>
+        <v>0.08909194745859508</v>
       </c>
       <c r="E29">
-        <v>0.3003997715591091</v>
+        <v>0.9086236436322102</v>
       </c>
       <c r="F29">
-        <v>0.0633923472301542</v>
+        <v>0.002284408909194746</v>
       </c>
       <c r="G29">
-        <v>0.003997715591090805</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.9957721891877148</v>
+        <v>0.5939937810266761</v>
       </c>
       <c r="E30">
-        <v>0.004200534613496263</v>
+        <v>0.4060062189733239</v>
       </c>
       <c r="F30">
-        <v>2.727619878893677E-05</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2011,22 +2011,22 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.1155801730508975</v>
+        <v>0.4618629857431321</v>
       </c>
       <c r="E31">
-        <v>0.6953221883530912</v>
+        <v>0.5377163028674622</v>
       </c>
       <c r="F31">
-        <v>0.1612873252305524</v>
+        <v>0.0004207113894058161</v>
       </c>
       <c r="G31">
-        <v>0.02532871841330721</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.002450794404624556</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3.080054752705157E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2040,19 +2040,19 @@
         <v>160</v>
       </c>
       <c r="D32">
-        <v>0.03610808764374616</v>
+        <v>0.2629312384648148</v>
       </c>
       <c r="E32">
-        <v>0.7091003738583125</v>
+        <v>0.5480573564904643</v>
       </c>
       <c r="F32">
-        <v>0.2313662391746723</v>
+        <v>0.189011405044721</v>
       </c>
       <c r="G32">
-        <v>0.02200558421276797</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.001419715110501159</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2069,13 +2069,13 @@
         <v>161</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.7455001139211666</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.2540442014126225</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.000455684666210982</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2098,22 +2098,22 @@
         <v>162</v>
       </c>
       <c r="D34">
-        <v>0.04399260501167949</v>
+        <v>0.07417352342631317</v>
       </c>
       <c r="E34">
-        <v>0.7148839091585745</v>
+        <v>0.6466477255118942</v>
       </c>
       <c r="F34">
-        <v>0.2349529005357398</v>
+        <v>0.2791368864822897</v>
       </c>
       <c r="G34">
-        <v>0.006147387604931031</v>
+        <v>4.186457950292064E-05</v>
       </c>
       <c r="H34">
-        <v>2.301645712931135E-05</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1.812319459000894E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2127,13 +2127,13 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>0.9964329812045548</v>
+        <v>0.2597064069145287</v>
       </c>
       <c r="E35">
-        <v>0.003567018795445191</v>
+        <v>0.7391960488407189</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.001097544244752367</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>0.001880524823953807</v>
+        <v>0.2370305862395469</v>
       </c>
       <c r="E36">
-        <v>0.8077094864849048</v>
+        <v>0.6980800875571095</v>
       </c>
       <c r="F36">
-        <v>0.1875310728621335</v>
+        <v>0.06488932620334363</v>
       </c>
       <c r="G36">
-        <v>0.002867526909704701</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1.138891930319209E-05</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2185,19 +2185,19 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.3898923131182088</v>
+        <v>0.1349195370498455</v>
       </c>
       <c r="E37">
-        <v>0.541896440637622</v>
+        <v>0.8249941738667703</v>
       </c>
       <c r="F37">
-        <v>0.0656415164645902</v>
+        <v>0.04008628908338412</v>
       </c>
       <c r="G37">
-        <v>0.002513649352769563</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>5.608042680943497E-05</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2243,19 +2243,19 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.0140614620271522</v>
+        <v>0.3656845591743935</v>
       </c>
       <c r="E39">
-        <v>0.7105909486428578</v>
+        <v>0.6279180194425472</v>
       </c>
       <c r="F39">
-        <v>0.2689887629936658</v>
+        <v>0.006392743195576306</v>
       </c>
       <c r="G39">
-        <v>0.006357656789453494</v>
+        <v>4.678187483041571E-06</v>
       </c>
       <c r="H39">
-        <v>1.169546870760393E-06</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>169</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.1811539902585238</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.8062944923192207</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.01255151742225553</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.9935540506646602</v>
+        <v>0.4504138449962378</v>
       </c>
       <c r="E42">
-        <v>0.006445949335339854</v>
+        <v>0.5416729370453975</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.007913217958364685</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>171</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.2686567164179104</v>
+        <v>0.4914317302377004</v>
       </c>
       <c r="E44">
-        <v>0.3946932006633499</v>
+        <v>0.5085682697622996</v>
       </c>
       <c r="F44">
-        <v>0.3322277501381979</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.004422332780541736</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2417,22 +2417,22 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.9168222586126565</v>
+        <v>0.3180405007262861</v>
       </c>
       <c r="E45">
-        <v>0.0831683202236413</v>
+        <v>0.6785807273823553</v>
       </c>
       <c r="F45">
-        <v>7.708224847205855E-06</v>
+        <v>0.003378771891358566</v>
       </c>
       <c r="G45">
-        <v>8.564694274673171E-07</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>8.564694274673171E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2446,22 +2446,22 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>0.03823530177416649</v>
+        <v>0.2522171038025185</v>
       </c>
       <c r="E46">
-        <v>0.6018030622008858</v>
+        <v>0.306977996497558</v>
       </c>
       <c r="F46">
-        <v>0.3513472203782771</v>
+        <v>0.4407639920103563</v>
       </c>
       <c r="G46">
-        <v>0.008602887115974416</v>
+        <v>4.090768956716318E-05</v>
       </c>
       <c r="H46">
-        <v>1.04128664352779E-05</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1.115664260922632E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2475,13 +2475,13 @@
         <v>175</v>
       </c>
       <c r="D47">
-        <v>0.08746355685131195</v>
+        <v>0.2157434402332362</v>
       </c>
       <c r="E47">
-        <v>0.5830903790087464</v>
+        <v>0.7842565597667639</v>
       </c>
       <c r="F47">
-        <v>0.3294460641399417</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2504,22 +2504,22 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.06862473497675166</v>
+        <v>0.1372412445268011</v>
       </c>
       <c r="E48">
-        <v>0.7539297798612601</v>
+        <v>0.8602819149846217</v>
       </c>
       <c r="F48">
-        <v>0.1639393345169174</v>
+        <v>0.002476840488577185</v>
       </c>
       <c r="G48">
-        <v>0.0128392330480536</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.000661653323927832</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>5.264273089430787E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2533,10 +2533,10 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.4231306334899073</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.5768693665100927</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>178</v>
       </c>
       <c r="D50">
-        <v>0.8312236286919831</v>
+        <v>0.4303797468354431</v>
       </c>
       <c r="E50">
-        <v>0.1687763713080169</v>
+        <v>0.3649789029535865</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.2046413502109705</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2591,16 +2591,16 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>0.1667082161045621</v>
+        <v>0.1120435709452412</v>
       </c>
       <c r="E51">
-        <v>0.7233112697338632</v>
+        <v>0.8875163441921518</v>
       </c>
       <c r="F51">
-        <v>0.108873942397216</v>
+        <v>0.0004400848626070322</v>
       </c>
       <c r="G51">
-        <v>0.001106571764358723</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2620,22 +2620,22 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.1010948196064722</v>
+        <v>0.1259114176557977</v>
       </c>
       <c r="E52">
-        <v>0.5833492718586297</v>
+        <v>0.6049342658355008</v>
       </c>
       <c r="F52">
-        <v>0.2957091144153217</v>
+        <v>0.2691477819227717</v>
       </c>
       <c r="G52">
-        <v>0.01943838249897143</v>
+        <v>6.53458592967931E-06</v>
       </c>
       <c r="H52">
-        <v>0.0004043903369559235</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4.021283649033422E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2649,10 +2649,10 @@
         <v>181</v>
       </c>
       <c r="D53">
-        <v>0.7577639751552795</v>
+        <v>0.927536231884058</v>
       </c>
       <c r="E53">
-        <v>0.2422360248447205</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2736,22 +2736,22 @@
         <v>184</v>
       </c>
       <c r="D56">
-        <v>0.07373205005996125</v>
+        <v>0.05980812398142739</v>
       </c>
       <c r="E56">
-        <v>0.8681061467974539</v>
+        <v>0.8940241689984932</v>
       </c>
       <c r="F56">
-        <v>0.05515390055656345</v>
+        <v>0.04616770702007934</v>
       </c>
       <c r="G56">
-        <v>0.002843700993204391</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>0.0001635866055779342</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>6.149872390147905E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2765,16 +2765,16 @@
         <v>185</v>
       </c>
       <c r="D57">
-        <v>0.5562055996656916</v>
+        <v>0.200793982448809</v>
       </c>
       <c r="E57">
-        <v>0.3069368992895947</v>
+        <v>0.6784371082323444</v>
       </c>
       <c r="F57">
-        <v>0.1364396155453406</v>
+        <v>0.1207689093188466</v>
       </c>
       <c r="G57">
-        <v>0.0004178854993731718</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.9832188333164384</v>
+        <v>0.3192281668863904</v>
       </c>
       <c r="E58">
-        <v>0.01678071373836237</v>
+        <v>0.6297564341544958</v>
       </c>
       <c r="F58">
-        <v>1.811780796627334E-07</v>
+        <v>0.05101150363040106</v>
       </c>
       <c r="G58">
-        <v>9.058903983136669E-08</v>
+        <v>3.895328712748768E-06</v>
       </c>
       <c r="H58">
-        <v>9.058903983136669E-08</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>9.058903983136669E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2823,13 +2823,13 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0.03872925807409362</v>
+        <v>0.9604790024082077</v>
       </c>
       <c r="E59">
-        <v>0.9099396298617755</v>
+        <v>0.0395209975917923</v>
       </c>
       <c r="F59">
-        <v>0.0513311120641309</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2852,16 +2852,16 @@
         <v>188</v>
       </c>
       <c r="D60">
-        <v>0.9646464646464646</v>
+        <v>0.1570707070707071</v>
       </c>
       <c r="E60">
-        <v>0.03535353535353535</v>
+        <v>0.04191919191919192</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.8005050505050505</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.0005050505050505051</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2881,16 +2881,16 @@
         <v>189</v>
       </c>
       <c r="D61">
-        <v>0.049708630400744</v>
+        <v>0.9957309160331598</v>
       </c>
       <c r="E61">
-        <v>0.8394510369165116</v>
+        <v>0.004269083966840212</v>
       </c>
       <c r="F61">
-        <v>0.1101587571741817</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>0.0006815755085628328</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.9983000424989376</v>
+        <v>0.7526561835954101</v>
       </c>
       <c r="E62">
-        <v>0.001699957501062473</v>
+        <v>0.2473438164045899</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>191</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.8975214128704616</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.04730863769748027</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.05516994943205813</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>0.9777658011526623</v>
+        <v>0.05334714580917422</v>
       </c>
       <c r="E64">
-        <v>0.02223419884733763</v>
+        <v>0.8225122285096477</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.1241406256811781</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.4352274357108329</v>
+        <v>0.4759655991203234</v>
       </c>
       <c r="E65">
-        <v>0.55300635853196</v>
+        <v>0.5240344008796766</v>
       </c>
       <c r="F65">
-        <v>0.01176620575720713</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.9966977819905213</v>
+        <v>0.7759760379146919</v>
       </c>
       <c r="E66">
-        <v>0.003302218009478673</v>
+        <v>0.2238862559241706</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.0001377061611374408</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>195</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3084,16 +3084,16 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.606886785573077</v>
+        <v>0.260815074288808</v>
       </c>
       <c r="E68">
-        <v>0.3774103617214822</v>
+        <v>0.733225053193363</v>
       </c>
       <c r="F68">
-        <v>0.01532284696070645</v>
+        <v>0.005959789835987338</v>
       </c>
       <c r="G68">
-        <v>0.0003800057447343656</v>
+        <v>8.268184176117614E-08</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>197</v>
       </c>
       <c r="D69">
-        <v>0.5726495726495726</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="E69">
-        <v>0.4273504273504273</v>
+        <v>0.7521367521367521</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3142,16 +3142,16 @@
         <v>198</v>
       </c>
       <c r="D70">
-        <v>0.06298302419784671</v>
+        <v>0.1595845325658245</v>
       </c>
       <c r="E70">
-        <v>0.9032785683829017</v>
+        <v>0.8376638951071315</v>
       </c>
       <c r="F70">
-        <v>0.03343526809508581</v>
+        <v>0.002751572327044025</v>
       </c>
       <c r="G70">
-        <v>0.0003031393241658672</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>199</v>
       </c>
       <c r="D71">
-        <v>0.8398007341373885</v>
+        <v>0.8227582590456214</v>
       </c>
       <c r="E71">
-        <v>0.1601992658626114</v>
+        <v>0.1772417409543786</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>201</v>
       </c>
       <c r="D73">
-        <v>0.1528598826236547</v>
+        <v>0.2235909157966313</v>
       </c>
       <c r="E73">
-        <v>0.8066342561897285</v>
+        <v>0.5785900933821921</v>
       </c>
       <c r="F73">
-        <v>0.0396285060714534</v>
+        <v>0.1978189908211766</v>
       </c>
       <c r="G73">
-        <v>0.0008668417759403928</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>1.051333922306423E-05</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>202</v>
       </c>
       <c r="D74">
-        <v>0.8266796494644596</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="E74">
-        <v>0.1733203505355404</v>
+        <v>0.8500486854917235</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.01071080817916261</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3287,16 +3287,16 @@
         <v>203</v>
       </c>
       <c r="D75">
-        <v>0.1225600258915387</v>
+        <v>0.1092097012359164</v>
       </c>
       <c r="E75">
-        <v>0.5346400469284139</v>
+        <v>0.03796751421000465</v>
       </c>
       <c r="F75">
-        <v>0.3424560551813419</v>
+        <v>0.8528227845540789</v>
       </c>
       <c r="G75">
-        <v>0.0003438719987054231</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>204</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0.5102413568166992</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.4897586431833007</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>205</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E77">
-        <v>0.07142857142857142</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F77">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3374,19 +3374,19 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.3614531700254205</v>
+        <v>0.1175949026802432</v>
       </c>
       <c r="E78">
-        <v>0.4609565492163956</v>
+        <v>0.7108799102026572</v>
       </c>
       <c r="F78">
-        <v>0.1692378073224451</v>
+        <v>0.1715251871170997</v>
       </c>
       <c r="G78">
-        <v>0.008243999754755156</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>0.0001084736809836205</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>0.8098033591045061</v>
+        <v>0.2026392069226414</v>
       </c>
       <c r="E79">
-        <v>0.1901415243239452</v>
+        <v>0.7607621369195849</v>
       </c>
       <c r="F79">
-        <v>5.511657154882577E-05</v>
+        <v>0.03656170300184891</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3.695315592478091E-05</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.04994440464702824</v>
+        <v>0.5771810016390271</v>
       </c>
       <c r="E80">
-        <v>0.7434279799899446</v>
+        <v>0.4228151538878516</v>
       </c>
       <c r="F80">
-        <v>0.1878020848150573</v>
+        <v>3.844473121366172E-06</v>
       </c>
       <c r="G80">
-        <v>0.01846244141984081</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0.0003626619644488755</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>4.271636801517969E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3461,19 +3461,19 @@
         <v>209</v>
       </c>
       <c r="D81">
-        <v>0.05135871015962842</v>
+        <v>0.1244994928193903</v>
       </c>
       <c r="E81">
-        <v>0.5311248732048476</v>
+        <v>0.4031551972665635</v>
       </c>
       <c r="F81">
-        <v>0.3945865143345256</v>
+        <v>0.4723453099140462</v>
       </c>
       <c r="G81">
-        <v>0.02266296513800651</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.0002669371629918317</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3490,13 +3490,13 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.6656551142320876</v>
+        <v>0.7076744965882865</v>
       </c>
       <c r="E82">
-        <v>0.3342735713212746</v>
+        <v>0.2923163994398023</v>
       </c>
       <c r="F82">
-        <v>7.131444663782731E-05</v>
+        <v>9.103971911211997E-06</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.2530448585125448</v>
+        <v>0.3074949078254595</v>
       </c>
       <c r="E83">
-        <v>0.7135161978045398</v>
+        <v>0.6807156938573174</v>
       </c>
       <c r="F83">
-        <v>0.03310080019167268</v>
+        <v>0.01178939831722306</v>
       </c>
       <c r="G83">
-        <v>0.0003381434912427452</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>212</v>
       </c>
       <c r="D84">
-        <v>0.3720993295072528</v>
+        <v>0.05708289221968389</v>
       </c>
       <c r="E84">
-        <v>0.6265299678683531</v>
+        <v>0.8881038613695882</v>
       </c>
       <c r="F84">
-        <v>0.001370702624394049</v>
+        <v>0.05481324641072789</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3577,16 +3577,16 @@
         <v>213</v>
       </c>
       <c r="D85">
-        <v>0.0362669245647969</v>
+        <v>0.172147001934236</v>
       </c>
       <c r="E85">
-        <v>0.7161508704061895</v>
+        <v>0.8147969052224371</v>
       </c>
       <c r="F85">
-        <v>0.2432301740812379</v>
+        <v>0.01305609284332689</v>
       </c>
       <c r="G85">
-        <v>0.004352030947775629</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3606,19 +3606,19 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.6198569700288206</v>
+        <v>0.4611107205883985</v>
       </c>
       <c r="E86">
-        <v>0.3465387560906128</v>
+        <v>0.5376276855116485</v>
       </c>
       <c r="F86">
-        <v>0.03124387239033197</v>
+        <v>0.001261593899953014</v>
       </c>
       <c r="G86">
-        <v>0.002353002112522337</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>7.399377712334393E-06</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.2609731474670709</v>
+        <v>0.7966018159781059</v>
       </c>
       <c r="E87">
-        <v>0.6731939237098604</v>
+        <v>0.2032537515224972</v>
       </c>
       <c r="F87">
-        <v>0.06547854805135245</v>
+        <v>0.0001444324993969571</v>
       </c>
       <c r="G87">
-        <v>0.0003543807717162452</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3693,13 +3693,13 @@
         <v>217</v>
       </c>
       <c r="D89">
-        <v>0.9999917052373132</v>
+        <v>0.3538048076444533</v>
       </c>
       <c r="E89">
-        <v>8.29476268683953E-06</v>
+        <v>0.6418321471822691</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.004363045173277592</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3722,16 +3722,16 @@
         <v>218</v>
       </c>
       <c r="D90">
-        <v>0.9992297817715019</v>
+        <v>0.5994865211810013</v>
       </c>
       <c r="E90">
-        <v>0.0006418485237483953</v>
+        <v>0.4001283697047497</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.0003851091142490372</v>
       </c>
       <c r="G90">
-        <v>0.0001283697047496791</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3751,22 +3751,22 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.02881888112381688</v>
+        <v>0.6689209014653703</v>
       </c>
       <c r="E91">
-        <v>0.444164583675737</v>
+        <v>0.3304700820659774</v>
       </c>
       <c r="F91">
-        <v>0.4357613663748295</v>
+        <v>0.0006090164686522889</v>
       </c>
       <c r="G91">
-        <v>0.08638303707639829</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0.004861040389689875</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1.109135952843573E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3780,13 +3780,13 @@
         <v>220</v>
       </c>
       <c r="D92">
-        <v>0.2573136754121198</v>
+        <v>0.06077315997213838</v>
       </c>
       <c r="E92">
-        <v>0.7426863245878802</v>
+        <v>0.9031808683538426</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.03604597167401904</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3809,19 +3809,19 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.4355855094293223</v>
+        <v>0.1613082704455681</v>
       </c>
       <c r="E93">
-        <v>0.4975085686181086</v>
+        <v>0.7768301492399674</v>
       </c>
       <c r="F93">
-        <v>0.06544887263114213</v>
+        <v>0.06186158031446444</v>
       </c>
       <c r="G93">
-        <v>0.001433994743556246</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2.305457787067919E-05</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -3838,19 +3838,19 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.009311958081217641</v>
+        <v>0.4103125194934814</v>
       </c>
       <c r="E94">
-        <v>0.7326055766951531</v>
+        <v>0.5895614746428794</v>
       </c>
       <c r="F94">
-        <v>0.2545904809431726</v>
+        <v>0.0001260058636391991</v>
       </c>
       <c r="G94">
-        <v>0.003455180587611503</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>3.680369284511259E-05</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.4003954436927974</v>
+        <v>0.3113808197373657</v>
       </c>
       <c r="E95">
-        <v>0.5781361918026263</v>
+        <v>0.6884052924791086</v>
       </c>
       <c r="F95">
-        <v>0.02143354556307202</v>
+        <v>0.0002138877835256665</v>
       </c>
       <c r="G95">
-        <v>3.481894150417827E-05</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3896,19 +3896,19 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.006254480472930151</v>
+        <v>0.2756750579214761</v>
       </c>
       <c r="E96">
-        <v>0.690382437585064</v>
+        <v>0.7242210470540565</v>
       </c>
       <c r="F96">
-        <v>0.2866411777539973</v>
+        <v>0.0001038950244672783</v>
       </c>
       <c r="G96">
-        <v>0.0165972301586477</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>0.0001246740293607339</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3925,13 +3925,13 @@
         <v>225</v>
       </c>
       <c r="D97">
-        <v>0.9513766751233482</v>
+        <v>0.2717344498228247</v>
       </c>
       <c r="E97">
-        <v>0.04723290116058875</v>
+        <v>0.7115078315096992</v>
       </c>
       <c r="F97">
-        <v>0.001390423716063026</v>
+        <v>0.01675771866747602</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3954,22 +3954,22 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.08761329305135952</v>
+        <v>0.3099613755763242</v>
       </c>
       <c r="E98">
-        <v>0.6321335374473628</v>
+        <v>0.6897231390494275</v>
       </c>
       <c r="F98">
-        <v>0.2339774743442787</v>
+        <v>0.000315485374248281</v>
       </c>
       <c r="G98">
-        <v>0.04514745936623495</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0.001125231168152202</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>3.00462261188839E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4012,13 +4012,13 @@
         <v>228</v>
       </c>
       <c r="D100">
-        <v>0.2234042553191489</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="E100">
-        <v>0.7686170212765957</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="F100">
-        <v>0.007978723404255319</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>229</v>
       </c>
       <c r="D101">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.9566320450696701</v>
+        <v>0.5713594846989422</v>
       </c>
       <c r="E102">
-        <v>0.04336795493032983</v>
+        <v>0.4274663714558756</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.001174143845182258</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -4099,10 +4099,10 @@
         <v>231</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4128,22 +4128,22 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.4961971481779067</v>
+        <v>0.2934944296881522</v>
       </c>
       <c r="E104">
-        <v>0.4391664576562211</v>
+        <v>0.6504324786326322</v>
       </c>
       <c r="F104">
-        <v>0.06160777215114569</v>
+        <v>0.05607048560128464</v>
       </c>
       <c r="G104">
-        <v>0.002962751148404186</v>
+        <v>2.606077930896339E-06</v>
       </c>
       <c r="H104">
-        <v>6.335465314765238E-05</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2.516213174658534E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4186,13 +4186,13 @@
         <v>234</v>
       </c>
       <c r="D106">
-        <v>0.9243317584022089</v>
+        <v>0.2404212300362243</v>
       </c>
       <c r="E106">
-        <v>0.07566824159779104</v>
+        <v>0.7506830148580574</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.008895755105718245</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>235</v>
       </c>
       <c r="D107">
-        <v>0.9125937057682563</v>
+        <v>0.3165638597165674</v>
       </c>
       <c r="E107">
-        <v>0.08740629423174376</v>
+        <v>0.6833662432068779</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>6.98970765547731E-05</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4244,22 +4244,22 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>0.0716354285456956</v>
+        <v>0.162578956221598</v>
       </c>
       <c r="E108">
-        <v>0.6593200460393083</v>
+        <v>0.6468055925309302</v>
       </c>
       <c r="F108">
-        <v>0.2401904883001085</v>
+        <v>0.1906154512474719</v>
       </c>
       <c r="G108">
-        <v>0.0277659677327495</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>0.001080122435950925</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>7.946946187253893E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4273,19 +4273,19 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0.006438691737288136</v>
+        <v>0.05260195974576271</v>
       </c>
       <c r="E109">
-        <v>0.6582196769067796</v>
+        <v>0.1182799258474576</v>
       </c>
       <c r="F109">
-        <v>0.3147345074152542</v>
+        <v>0.7856362552966102</v>
       </c>
       <c r="G109">
-        <v>0.0205078125</v>
+        <v>0.04348185911016949</v>
       </c>
       <c r="H109">
-        <v>9.931144067796611E-05</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>238</v>
       </c>
       <c r="D110">
-        <v>0.34215202010618</v>
+        <v>0.1080366893109617</v>
       </c>
       <c r="E110">
-        <v>0.6262785300476873</v>
+        <v>0.7712483630535791</v>
       </c>
       <c r="F110">
-        <v>0.03076697293978563</v>
+        <v>0.1206128635545009</v>
       </c>
       <c r="G110">
-        <v>0.0007978841665085303</v>
+        <v>0.0001020840809583127</v>
       </c>
       <c r="H110">
-        <v>4.592739838615297E-06</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4331,13 +4331,13 @@
         <v>239</v>
       </c>
       <c r="D111">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>0.7846153846153846</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>240</v>
       </c>
       <c r="D112">
-        <v>0.9995112414467253</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.0004887585532746823</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4389,22 +4389,22 @@
         <v>241</v>
       </c>
       <c r="D113">
-        <v>0.1981618223753391</v>
+        <v>0.3512226011281974</v>
       </c>
       <c r="E113">
-        <v>0.6625282494902019</v>
+        <v>0.04777120017660762</v>
       </c>
       <c r="F113">
-        <v>0.1376599836167481</v>
+        <v>0.6002509687276699</v>
       </c>
       <c r="G113">
-        <v>0.0009934525089033098</v>
+        <v>0.0007552299675251114</v>
       </c>
       <c r="H113">
-        <v>0.0003543894914801281</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0.0003021025173273223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4476,10 +4476,10 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>0.1836327345309381</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.8163672654690619</v>
+        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4505,19 +4505,19 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.06907937942991045</v>
+        <v>0.3327876146430233</v>
       </c>
       <c r="E117">
-        <v>0.7357424287612585</v>
+        <v>0.6664441381767208</v>
       </c>
       <c r="F117">
-        <v>0.1861601748594946</v>
+        <v>0.0007682471802559352</v>
       </c>
       <c r="G117">
-        <v>0.008809583593563189</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>0.0002084333557732859</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4534,13 +4534,13 @@
         <v>246</v>
       </c>
       <c r="D118">
-        <v>0.9881773399014778</v>
+        <v>0.2297357814599194</v>
       </c>
       <c r="E118">
-        <v>0.01182266009852217</v>
+        <v>0.7683833407971339</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.001880877742946708</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4592,19 +4592,19 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <v>0.0548012413856054</v>
+        <v>0.353053260919173</v>
       </c>
       <c r="E120">
-        <v>0.5057048970836566</v>
+        <v>0.6375336588927936</v>
       </c>
       <c r="F120">
-        <v>0.4139359225959564</v>
+        <v>0.009413080188033407</v>
       </c>
       <c r="G120">
-        <v>0.02539820181643923</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0.0001597371183423851</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>249</v>
       </c>
       <c r="D121">
-        <v>0.7603686635944701</v>
+        <v>0.4949308755760369</v>
       </c>
       <c r="E121">
-        <v>0.2202764976958525</v>
+        <v>0.2866359447004608</v>
       </c>
       <c r="F121">
-        <v>0.01935483870967742</v>
+        <v>0.2184331797235023</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4650,13 +4650,13 @@
         <v>250</v>
       </c>
       <c r="D122">
-        <v>0.453723034098817</v>
+        <v>0.47633959638135</v>
       </c>
       <c r="E122">
-        <v>0.4937369519832985</v>
+        <v>0.477035490605428</v>
       </c>
       <c r="F122">
-        <v>0.05254001391788448</v>
+        <v>0.04662491301322199</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4679,10 +4679,10 @@
         <v>251</v>
       </c>
       <c r="D123">
-        <v>0.8701046431480669</v>
+        <v>0.3718904693276521</v>
       </c>
       <c r="E123">
-        <v>0.1298953568519331</v>
+        <v>0.6281095306723479</v>
       </c>
       <c r="F123">
         <v>0</v>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
@@ -1170,10 +1170,10 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.1191828382616863</v>
+        <v>0.04278358296573355</v>
       </c>
       <c r="E2">
-        <v>0.8435316415357005</v>
+        <v>0.9199308968316533</v>
       </c>
       <c r="F2">
         <v>0.03728552020261317</v>
@@ -1199,10 +1199,10 @@
         <v>131</v>
       </c>
       <c r="D3">
-        <v>0.6666666666666666</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E3">
-        <v>0.3333333333333333</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>0.2012078569334506</v>
+        <v>0.04526531808853709</v>
       </c>
       <c r="E4">
-        <v>0.7776722368806801</v>
+        <v>0.9336147757255937</v>
       </c>
       <c r="F4">
         <v>0.02111990618586925</v>
@@ -1257,10 +1257,10 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>0.1152737752161383</v>
+        <v>0.0345821325648415</v>
       </c>
       <c r="E5">
-        <v>0.8847262247838616</v>
+        <v>0.9654178674351584</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>134</v>
       </c>
       <c r="D6">
-        <v>0.4102508137394698</v>
+        <v>5.758948830587851E-07</v>
       </c>
       <c r="E6">
-        <v>0.06697254363555528</v>
+        <v>0.06743383543688537</v>
       </c>
       <c r="F6">
-        <v>0.5212597355029981</v>
+        <v>0.9310486815462548</v>
       </c>
       <c r="G6">
         <v>0.00151690712197684</v>
@@ -1315,10 +1315,10 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>0.2214292868589744</v>
+        <v>0.03902493990384615</v>
       </c>
       <c r="E7">
-        <v>0.7160581931089743</v>
+        <v>0.8984625400641025</v>
       </c>
       <c r="F7">
         <v>0.06191155849358974</v>
@@ -1344,10 +1344,10 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <v>0.2097096371021738</v>
+        <v>0.001722239581008496</v>
       </c>
       <c r="E8">
-        <v>0.6541013852311446</v>
+        <v>0.8620887827523099</v>
       </c>
       <c r="F8">
         <v>0.1361889776666815</v>
@@ -1373,10 +1373,10 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>0.1256447426671644</v>
+        <v>0.01462660914401785</v>
       </c>
       <c r="E9">
-        <v>0.8235275735453685</v>
+        <v>0.934545707068515</v>
       </c>
       <c r="F9">
         <v>0.05082768378746712</v>
@@ -1402,10 +1402,10 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>0.04155720085980415</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6995132717854113</v>
+        <v>0.7410704726452155</v>
       </c>
       <c r="F10">
         <v>0.2589295273547845</v>
@@ -1431,10 +1431,10 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.2642851023729975</v>
+        <v>0.1579012951410793</v>
       </c>
       <c r="E11">
-        <v>0.7254970678255181</v>
+        <v>0.8318808750574364</v>
       </c>
       <c r="F11">
         <v>0.01021782980148439</v>
@@ -1460,10 +1460,10 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>0.4894298526585522</v>
+        <v>0.0877642536835362</v>
       </c>
       <c r="E12">
-        <v>0.5105701473414478</v>
+        <v>0.9122357463164638</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.6737864250731955</v>
+        <v>0.4242766233361111</v>
       </c>
       <c r="E13">
-        <v>0.3262091185789598</v>
+        <v>0.5757189203160442</v>
       </c>
       <c r="F13">
         <v>4.456347844687365E-06</v>
@@ -1518,10 +1518,10 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.7996286083104251</v>
+        <v>0.3723480446184658</v>
       </c>
       <c r="E14">
-        <v>0.2001569623076032</v>
+        <v>0.6274375259995626</v>
       </c>
       <c r="F14">
         <v>0.0002144293819716353</v>
@@ -1547,10 +1547,10 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.3612880458756065</v>
+        <v>0.2208381120423467</v>
       </c>
       <c r="E15">
-        <v>0.6384649316277018</v>
+        <v>0.7789148654609617</v>
       </c>
       <c r="F15">
         <v>0.000247022496691663</v>
@@ -1576,10 +1576,10 @@
         <v>144</v>
       </c>
       <c r="D16">
-        <v>0.1382532891655116</v>
+        <v>0.002424265717971323</v>
       </c>
       <c r="E16">
-        <v>0.8334674542567579</v>
+        <v>0.9692964777042982</v>
       </c>
       <c r="F16">
         <v>0.02827925657773048</v>
@@ -1605,10 +1605,10 @@
         <v>145</v>
       </c>
       <c r="D17">
-        <v>0.04577098567415171</v>
+        <v>0.000239096216302377</v>
       </c>
       <c r="E17">
-        <v>0.9191854788897965</v>
+        <v>0.9647173683476459</v>
       </c>
       <c r="F17">
         <v>0.03504353543605172</v>
@@ -1634,10 +1634,10 @@
         <v>146</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.1781881517865602</v>
+        <v>0.1139040511882465</v>
       </c>
       <c r="E19">
-        <v>0.8215290885373017</v>
+        <v>0.8858131891356154</v>
       </c>
       <c r="F19">
         <v>0.0002827596761381441</v>
@@ -1692,13 +1692,13 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <v>0.3651807556401196</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.3632780646914923</v>
       </c>
       <c r="F20">
-        <v>0.2715411796683881</v>
+        <v>0.6367219353085077</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>149</v>
       </c>
       <c r="D21">
-        <v>0.1513984882850131</v>
+        <v>0.0003092063049489095</v>
       </c>
       <c r="E21">
-        <v>0.4945334827532588</v>
+        <v>0.6456227647333229</v>
       </c>
       <c r="F21">
         <v>0.3540644543223646</v>
@@ -1750,10 +1750,10 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.1278765502903434</v>
+        <v>0.02771405357612254</v>
       </c>
       <c r="E22">
-        <v>0.6388630009319665</v>
+        <v>0.7390254976461873</v>
       </c>
       <c r="F22">
         <v>0.2332604487776901</v>
@@ -1779,13 +1779,13 @@
         <v>151</v>
       </c>
       <c r="D23">
-        <v>0.1562514293743851</v>
+        <v>0.005003908140146124</v>
       </c>
       <c r="E23">
-        <v>0.4900424454611134</v>
+        <v>0.6074997113092249</v>
       </c>
       <c r="F23">
-        <v>0.3530183604068201</v>
+        <v>0.3868086157929476</v>
       </c>
       <c r="G23">
         <v>0.0006877647576814355</v>
@@ -1808,10 +1808,10 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.8225665427071264</v>
+        <v>0.7835944934113391</v>
       </c>
       <c r="E24">
-        <v>0.1694366387028702</v>
+        <v>0.2084086879986574</v>
       </c>
       <c r="F24">
         <v>0.007996818590003374</v>
@@ -1837,10 +1837,10 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>0.1339185672880147</v>
+        <v>0.01910344380550231</v>
       </c>
       <c r="E25">
-        <v>0.7534701965904567</v>
+        <v>0.868285320072969</v>
       </c>
       <c r="F25">
         <v>0.1126112361215287</v>
@@ -1866,10 +1866,10 @@
         <v>154</v>
       </c>
       <c r="D26">
-        <v>0.385488481587355</v>
+        <v>0.0878594249201278</v>
       </c>
       <c r="E26">
-        <v>0.6144274424079368</v>
+        <v>0.912056499075164</v>
       </c>
       <c r="F26">
         <v>8.407600470825626E-05</v>
@@ -1895,10 +1895,10 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.13360127042758</v>
+        <v>0.05310821020819342</v>
       </c>
       <c r="E27">
-        <v>0.810140684463846</v>
+        <v>0.8906337446832326</v>
       </c>
       <c r="F27">
         <v>0.05625804510857399</v>
@@ -1924,10 +1924,10 @@
         <v>156</v>
       </c>
       <c r="D28">
-        <v>0.1161330062807299</v>
+        <v>0.01223147404661599</v>
       </c>
       <c r="E28">
-        <v>0.7370453070517968</v>
+        <v>0.8409468392859107</v>
       </c>
       <c r="F28">
         <v>0.1468216866674733</v>
@@ -1953,10 +1953,10 @@
         <v>157</v>
       </c>
       <c r="D29">
-        <v>0.08909194745859508</v>
+        <v>0.006282124500285551</v>
       </c>
       <c r="E29">
-        <v>0.9086236436322102</v>
+        <v>0.9914334665905197</v>
       </c>
       <c r="F29">
         <v>0.002284408909194746</v>
@@ -1982,10 +1982,10 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.5939937810266761</v>
+        <v>0.1539468659647591</v>
       </c>
       <c r="E30">
-        <v>0.4060062189733239</v>
+        <v>0.8460531340352409</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.4618629857431321</v>
+        <v>0.4361607031472481</v>
       </c>
       <c r="E31">
-        <v>0.5377163028674622</v>
+        <v>0.5634185854633461</v>
       </c>
       <c r="F31">
         <v>0.0004207113894058161</v>
@@ -2040,10 +2040,10 @@
         <v>160</v>
       </c>
       <c r="D32">
-        <v>0.2629312384648148</v>
+        <v>0.001703658132601391</v>
       </c>
       <c r="E32">
-        <v>0.5480573564904643</v>
+        <v>0.8092849368226775</v>
       </c>
       <c r="F32">
         <v>0.189011405044721</v>
@@ -2069,10 +2069,10 @@
         <v>161</v>
       </c>
       <c r="D33">
-        <v>0.7455001139211666</v>
+        <v>0.002961950330371383</v>
       </c>
       <c r="E33">
-        <v>0.2540442014126225</v>
+        <v>0.9965823650034177</v>
       </c>
       <c r="F33">
         <v>0.000455684666210982</v>
@@ -2098,13 +2098,13 @@
         <v>162</v>
       </c>
       <c r="D34">
-        <v>0.07417352342631317</v>
+        <v>0.001311031896641247</v>
       </c>
       <c r="E34">
-        <v>0.6466477255118942</v>
+        <v>0.6950578592048884</v>
       </c>
       <c r="F34">
-        <v>0.2791368864822897</v>
+        <v>0.3035892443189675</v>
       </c>
       <c r="G34">
         <v>4.186457950292064E-05</v>
@@ -2127,10 +2127,10 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>0.2597064069145287</v>
+        <v>0.01234737275346412</v>
       </c>
       <c r="E35">
-        <v>0.7391960488407189</v>
+        <v>0.9865550830017835</v>
       </c>
       <c r="F35">
         <v>0.001097544244752367</v>
@@ -2156,10 +2156,10 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>0.2370305862395469</v>
+        <v>0.0004155264122006223</v>
       </c>
       <c r="E36">
-        <v>0.6980800875571095</v>
+        <v>0.9346951473844557</v>
       </c>
       <c r="F36">
         <v>0.06488932620334363</v>
@@ -2185,10 +2185,10 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.1349195370498455</v>
+        <v>0.0441153561917153</v>
       </c>
       <c r="E37">
-        <v>0.8249941738667703</v>
+        <v>0.9157983547249006</v>
       </c>
       <c r="F37">
         <v>0.04008628908338412</v>
@@ -2214,10 +2214,10 @@
         <v>166</v>
       </c>
       <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.3656845591743935</v>
+        <v>0.2446341189569513</v>
       </c>
       <c r="E39">
-        <v>0.6279180194425472</v>
+        <v>0.7489684596599894</v>
       </c>
       <c r="F39">
         <v>0.006392743195576306</v>
@@ -2272,10 +2272,10 @@
         <v>168</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
         <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>169</v>
       </c>
       <c r="D41">
-        <v>0.1811539902585238</v>
+        <v>0.03784188834769577</v>
       </c>
       <c r="E41">
-        <v>0.8062944923192207</v>
+        <v>0.9496065942300487</v>
       </c>
       <c r="F41">
         <v>0.01255151742225553</v>
@@ -2330,10 +2330,10 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.4504138449962378</v>
+        <v>0.1385001254075746</v>
       </c>
       <c r="E42">
-        <v>0.5416729370453975</v>
+        <v>0.8535866566340607</v>
       </c>
       <c r="F42">
         <v>0.007913217958364685</v>
@@ -2359,10 +2359,10 @@
         <v>171</v>
       </c>
       <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.4914317302377004</v>
+        <v>0.1840796019900497</v>
       </c>
       <c r="E44">
-        <v>0.5085682697622996</v>
+        <v>0.8159203980099502</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2417,10 +2417,10 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.3180405007262861</v>
+        <v>0.2101998657055938</v>
       </c>
       <c r="E45">
-        <v>0.6785807273823553</v>
+        <v>0.7864213624030476</v>
       </c>
       <c r="F45">
         <v>0.003378771891358566</v>
@@ -2446,13 +2446,13 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>0.2522171038025185</v>
+        <v>0.0007192315602081235</v>
       </c>
       <c r="E46">
-        <v>0.306977996497558</v>
+        <v>0.3077336730902896</v>
       </c>
       <c r="F46">
-        <v>0.4407639920103563</v>
+        <v>0.6915061876599351</v>
       </c>
       <c r="G46">
         <v>4.090768956716318E-05</v>
@@ -2475,10 +2475,10 @@
         <v>175</v>
       </c>
       <c r="D47">
-        <v>0.2157434402332362</v>
+        <v>0.02623906705539359</v>
       </c>
       <c r="E47">
-        <v>0.7842565597667639</v>
+        <v>0.9737609329446064</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.1372412445268011</v>
+        <v>0.0259584596210513</v>
       </c>
       <c r="E48">
-        <v>0.8602819149846217</v>
+        <v>0.9715646998903715</v>
       </c>
       <c r="F48">
         <v>0.002476840488577185</v>
@@ -2533,10 +2533,10 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>0.4231306334899073</v>
+        <v>0.1679573441665609</v>
       </c>
       <c r="E49">
-        <v>0.5768693665100927</v>
+        <v>0.8320426558334392</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2562,10 +2562,10 @@
         <v>178</v>
       </c>
       <c r="D50">
-        <v>0.4303797468354431</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.3649789029535865</v>
+        <v>0.7953586497890295</v>
       </c>
       <c r="F50">
         <v>0.2046413502109705</v>
@@ -2591,10 +2591,10 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>0.1120435709452412</v>
+        <v>0.03732072265495821</v>
       </c>
       <c r="E51">
-        <v>0.8875163441921518</v>
+        <v>0.9622391924824347</v>
       </c>
       <c r="F51">
         <v>0.0004400848626070322</v>
@@ -2620,10 +2620,10 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.1259114176557977</v>
+        <v>0.006488341167715426</v>
       </c>
       <c r="E52">
-        <v>0.6049342658355008</v>
+        <v>0.7243573423235832</v>
       </c>
       <c r="F52">
         <v>0.2691477819227717</v>
@@ -2649,10 +2649,10 @@
         <v>181</v>
       </c>
       <c r="D53">
-        <v>0.927536231884058</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.07246376811594203</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>182</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2707,10 +2707,10 @@
         <v>183</v>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
         <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2736,10 +2736,10 @@
         <v>184</v>
       </c>
       <c r="D56">
-        <v>0.05980812398142739</v>
+        <v>0.00488607361397251</v>
       </c>
       <c r="E56">
-        <v>0.8940241689984932</v>
+        <v>0.9489462193659481</v>
       </c>
       <c r="F56">
         <v>0.04616770702007934</v>
@@ -2765,10 +2765,10 @@
         <v>185</v>
       </c>
       <c r="D57">
-        <v>0.200793982448809</v>
+        <v>0.004701211867948182</v>
       </c>
       <c r="E57">
-        <v>0.6784371082323444</v>
+        <v>0.8745298788132052</v>
       </c>
       <c r="F57">
         <v>0.1207689093188466</v>
@@ -2794,10 +2794,10 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.3192281668863904</v>
+        <v>0.2181922178035908</v>
       </c>
       <c r="E58">
-        <v>0.6297564341544958</v>
+        <v>0.7307923832372953</v>
       </c>
       <c r="F58">
         <v>0.05101150363040106</v>
@@ -2823,10 +2823,10 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0.9604790024082077</v>
+        <v>0.001220598423118794</v>
       </c>
       <c r="E59">
-        <v>0.0395209975917923</v>
+        <v>0.9987794015768812</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>188</v>
       </c>
       <c r="D60">
-        <v>0.1570707070707071</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.04191919191919192</v>
+        <v>0.198989898989899</v>
       </c>
       <c r="F60">
         <v>0.8005050505050505</v>
@@ -2910,10 +2910,10 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.7526561835954101</v>
+        <v>0.4351891202719932</v>
       </c>
       <c r="E62">
-        <v>0.2473438164045899</v>
+        <v>0.5648108797280068</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>191</v>
       </c>
       <c r="D63">
-        <v>0.8975214128704616</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.04730863769748027</v>
+        <v>0.921462680425767</v>
       </c>
       <c r="F63">
-        <v>0.05516994943205813</v>
+        <v>0.07853731957423309</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>0.05334714580917422</v>
+        <v>7.520206467813516E-05</v>
       </c>
       <c r="E64">
-        <v>0.8225122285096477</v>
+        <v>0.8757841722541437</v>
       </c>
       <c r="F64">
         <v>0.1241406256811781</v>
@@ -2997,10 +2997,10 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.4759655991203234</v>
+        <v>0.3968159531689074</v>
       </c>
       <c r="E65">
-        <v>0.5240344008796766</v>
+        <v>0.6031840468310925</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.7759760379146919</v>
+        <v>0.7740514881516588</v>
       </c>
       <c r="E66">
-        <v>0.2238862559241706</v>
+        <v>0.2258108056872038</v>
       </c>
       <c r="F66">
         <v>0.0001377061611374408</v>
@@ -3055,13 +3055,13 @@
         <v>195</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3084,10 +3084,10 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.260815074288808</v>
+        <v>0.1490121090864533</v>
       </c>
       <c r="E68">
-        <v>0.733225053193363</v>
+        <v>0.8450280183957176</v>
       </c>
       <c r="F68">
         <v>0.005959789835987338</v>
@@ -3113,10 +3113,10 @@
         <v>197</v>
       </c>
       <c r="D69">
-        <v>0.2478632478632479</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E69">
-        <v>0.7521367521367521</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3142,10 +3142,10 @@
         <v>198</v>
       </c>
       <c r="D70">
-        <v>0.1595845325658245</v>
+        <v>0.06823965995096472</v>
       </c>
       <c r="E70">
-        <v>0.8376638951071315</v>
+        <v>0.9290087677219913</v>
       </c>
       <c r="F70">
         <v>0.002751572327044025</v>
@@ -3171,10 +3171,10 @@
         <v>199</v>
       </c>
       <c r="D71">
-        <v>0.8227582590456214</v>
+        <v>0.04745673833245936</v>
       </c>
       <c r="E71">
-        <v>0.1772417409543786</v>
+        <v>0.9525432616675407</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>200</v>
       </c>
       <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>201</v>
       </c>
       <c r="D73">
-        <v>0.2235909157966313</v>
+        <v>0.0001892401060151562</v>
       </c>
       <c r="E73">
-        <v>0.5785900933821921</v>
+        <v>0.8019917690728082</v>
       </c>
       <c r="F73">
         <v>0.1978189908211766</v>
@@ -3258,10 +3258,10 @@
         <v>202</v>
       </c>
       <c r="D74">
-        <v>0.1392405063291139</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.8500486854917235</v>
+        <v>0.9892891918208374</v>
       </c>
       <c r="F74">
         <v>0.01071080817916261</v>
@@ -3287,10 +3287,10 @@
         <v>203</v>
       </c>
       <c r="D75">
-        <v>0.1092097012359164</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0.03796751421000465</v>
+        <v>0.1471772154459211</v>
       </c>
       <c r="F75">
         <v>0.8528227845540789</v>
@@ -3316,10 +3316,10 @@
         <v>204</v>
       </c>
       <c r="D76">
-        <v>0.5102413568166992</v>
+        <v>0.1140247879973907</v>
       </c>
       <c r="E76">
-        <v>0.4897586431833007</v>
+        <v>0.8859752120026093</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>205</v>
       </c>
       <c r="D77">
-        <v>0.2142857142857143</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.1175949026802432</v>
+        <v>0.03288639032603415</v>
       </c>
       <c r="E78">
-        <v>0.7108799102026572</v>
+        <v>0.7955884225568661</v>
       </c>
       <c r="F78">
         <v>0.1715251871170997</v>
@@ -3403,10 +3403,10 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>0.2026392069226414</v>
+        <v>0.0276566187486534</v>
       </c>
       <c r="E79">
-        <v>0.7607621369195849</v>
+        <v>0.9357447250935729</v>
       </c>
       <c r="F79">
         <v>0.03656170300184891</v>
@@ -3432,10 +3432,10 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.5771810016390271</v>
+        <v>0.5176501896820321</v>
       </c>
       <c r="E80">
-        <v>0.4228151538878516</v>
+        <v>0.4823459658448465</v>
       </c>
       <c r="F80">
         <v>3.844473121366172E-06</v>
@@ -3461,10 +3461,10 @@
         <v>209</v>
       </c>
       <c r="D81">
-        <v>0.1244994928193903</v>
+        <v>5.338743259836634E-05</v>
       </c>
       <c r="E81">
-        <v>0.4031551972665635</v>
+        <v>0.5276013026533554</v>
       </c>
       <c r="F81">
         <v>0.4723453099140462</v>
@@ -3490,10 +3490,10 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.7076744965882865</v>
+        <v>0.641458274220738</v>
       </c>
       <c r="E82">
-        <v>0.2923163994398023</v>
+        <v>0.3585326218073508</v>
       </c>
       <c r="F82">
         <v>9.103971911211997E-06</v>
@@ -3519,10 +3519,10 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.3074949078254595</v>
+        <v>0.2234490415150216</v>
       </c>
       <c r="E83">
-        <v>0.6807156938573174</v>
+        <v>0.7647615601677553</v>
       </c>
       <c r="F83">
         <v>0.01178939831722306</v>
@@ -3548,10 +3548,10 @@
         <v>212</v>
       </c>
       <c r="D84">
-        <v>0.05708289221968389</v>
+        <v>0.001062387399936851</v>
       </c>
       <c r="E84">
-        <v>0.8881038613695882</v>
+        <v>0.9441243661893353</v>
       </c>
       <c r="F84">
         <v>0.05481324641072789</v>
@@ -3577,10 +3577,10 @@
         <v>213</v>
       </c>
       <c r="D85">
-        <v>0.172147001934236</v>
+        <v>0.007736943907156673</v>
       </c>
       <c r="E85">
-        <v>0.8147969052224371</v>
+        <v>0.9792069632495164</v>
       </c>
       <c r="F85">
         <v>0.01305609284332689</v>
@@ -3606,10 +3606,10 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.4611107205883985</v>
+        <v>0.3790812192694594</v>
       </c>
       <c r="E86">
-        <v>0.5376276855116485</v>
+        <v>0.6196571868305876</v>
       </c>
       <c r="F86">
         <v>0.001261593899953014</v>
@@ -3635,10 +3635,10 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.7966018159781059</v>
+        <v>0.4767136097106288</v>
       </c>
       <c r="E87">
-        <v>0.2032537515224972</v>
+        <v>0.5231419577899743</v>
       </c>
       <c r="F87">
         <v>0.0001444324993969571</v>
@@ -3664,10 +3664,10 @@
         <v>216</v>
       </c>
       <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3693,10 +3693,10 @@
         <v>217</v>
       </c>
       <c r="D89">
-        <v>0.3538048076444533</v>
+        <v>0.02145855107085386</v>
       </c>
       <c r="E89">
-        <v>0.6418321471822691</v>
+        <v>0.9741784037558685</v>
       </c>
       <c r="F89">
         <v>0.004363045173277592</v>
@@ -3722,10 +3722,10 @@
         <v>218</v>
       </c>
       <c r="D90">
-        <v>0.5994865211810013</v>
+        <v>0.03953786906290115</v>
       </c>
       <c r="E90">
-        <v>0.4001283697047497</v>
+        <v>0.9600770218228498</v>
       </c>
       <c r="F90">
         <v>0.0003851091142490372</v>
@@ -3751,10 +3751,10 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.6689209014653703</v>
+        <v>0.4642338945897356</v>
       </c>
       <c r="E91">
-        <v>0.3304700820659774</v>
+        <v>0.5351570889416121</v>
       </c>
       <c r="F91">
         <v>0.0006090164686522889</v>
@@ -3780,10 +3780,10 @@
         <v>220</v>
       </c>
       <c r="D92">
-        <v>0.06077315997213838</v>
+        <v>5.804504295333179E-05</v>
       </c>
       <c r="E92">
-        <v>0.9031808683538426</v>
+        <v>0.9638959832830276</v>
       </c>
       <c r="F92">
         <v>0.03604597167401904</v>
@@ -3809,10 +3809,10 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.1613082704455681</v>
+        <v>0.06808785331140586</v>
       </c>
       <c r="E93">
-        <v>0.7768301492399674</v>
+        <v>0.8700505663741297</v>
       </c>
       <c r="F93">
         <v>0.06186158031446444</v>
@@ -3838,10 +3838,10 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.4103125194934814</v>
+        <v>0.1800617553490113</v>
       </c>
       <c r="E94">
-        <v>0.5895614746428794</v>
+        <v>0.8198122387873495</v>
       </c>
       <c r="F94">
         <v>0.0001260058636391991</v>
@@ -3867,10 +3867,10 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.3113808197373657</v>
+        <v>0.2736147035415837</v>
       </c>
       <c r="E95">
-        <v>0.6884052924791086</v>
+        <v>0.7261714086748906</v>
       </c>
       <c r="F95">
         <v>0.0002138877835256665</v>
@@ -3896,10 +3896,10 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.2756750579214761</v>
+        <v>0.189296734579381</v>
       </c>
       <c r="E96">
-        <v>0.7242210470540565</v>
+        <v>0.8105993703961517</v>
       </c>
       <c r="F96">
         <v>0.0001038950244672783</v>
@@ -3925,10 +3925,10 @@
         <v>225</v>
       </c>
       <c r="D97">
-        <v>0.2717344498228247</v>
+        <v>0.04193580185424416</v>
       </c>
       <c r="E97">
-        <v>0.7115078315096992</v>
+        <v>0.9413064794782798</v>
       </c>
       <c r="F97">
         <v>0.01675771866747602</v>
@@ -3954,10 +3954,10 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.3099613755763242</v>
+        <v>0.2077290912068217</v>
       </c>
       <c r="E98">
-        <v>0.6897231390494275</v>
+        <v>0.79195542341893</v>
       </c>
       <c r="F98">
         <v>0.000315485374248281</v>
@@ -3983,10 +3983,10 @@
         <v>227</v>
       </c>
       <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
         <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4012,10 +4012,10 @@
         <v>228</v>
       </c>
       <c r="D100">
-        <v>0.4574468085106383</v>
+        <v>0.01861702127659574</v>
       </c>
       <c r="E100">
-        <v>0.5425531914893617</v>
+        <v>0.9813829787234043</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>229</v>
       </c>
       <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
         <v>1</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.5713594846989422</v>
+        <v>0.541077680259343</v>
       </c>
       <c r="E102">
-        <v>0.4274663714558756</v>
+        <v>0.4577481758954747</v>
       </c>
       <c r="F102">
         <v>0.001174143845182258</v>
@@ -4099,10 +4099,10 @@
         <v>231</v>
       </c>
       <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>1</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4128,10 +4128,10 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.2934944296881522</v>
+        <v>0.2373446833718658</v>
       </c>
       <c r="E104">
-        <v>0.6504324786326322</v>
+        <v>0.7065822249489186</v>
       </c>
       <c r="F104">
         <v>0.05607048560128464</v>
@@ -4157,10 +4157,10 @@
         <v>233</v>
       </c>
       <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
         <v>1</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>234</v>
       </c>
       <c r="D106">
-        <v>0.2404212300362243</v>
+        <v>0.05287634714909201</v>
       </c>
       <c r="E106">
-        <v>0.7506830148580574</v>
+        <v>0.9382278977451898</v>
       </c>
       <c r="F106">
         <v>0.008895755105718245</v>
@@ -4215,10 +4215,10 @@
         <v>235</v>
       </c>
       <c r="D107">
-        <v>0.3165638597165674</v>
+        <v>0.004543309976060251</v>
       </c>
       <c r="E107">
-        <v>0.6833662432068779</v>
+        <v>0.995386792947385</v>
       </c>
       <c r="F107">
         <v>6.98970765547731E-05</v>
@@ -4244,10 +4244,10 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>0.162578956221598</v>
+        <v>0.01294391972524758</v>
       </c>
       <c r="E108">
-        <v>0.6468055925309302</v>
+        <v>0.7964406290272805</v>
       </c>
       <c r="F108">
         <v>0.1906154512474719</v>
@@ -4273,13 +4273,13 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0.05260195974576271</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0.1182799258474576</v>
       </c>
       <c r="F109">
-        <v>0.7856362552966102</v>
+        <v>0.8382382150423728</v>
       </c>
       <c r="G109">
         <v>0.04348185911016949</v>
@@ -4302,13 +4302,13 @@
         <v>238</v>
       </c>
       <c r="D110">
-        <v>0.1080366893109617</v>
+        <v>0.01038606362322498</v>
       </c>
       <c r="E110">
-        <v>0.7712483630535791</v>
+        <v>0.8601905277245959</v>
       </c>
       <c r="F110">
-        <v>0.1206128635545009</v>
+        <v>0.1293213245712208</v>
       </c>
       <c r="G110">
         <v>0.0001020840809583127</v>
@@ -4331,10 +4331,10 @@
         <v>239</v>
       </c>
       <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
         <v>1</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>240</v>
       </c>
       <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
         <v>1</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>241</v>
       </c>
       <c r="D113">
-        <v>0.3512226011281974</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0.04777120017660762</v>
       </c>
       <c r="F113">
-        <v>0.6002509687276699</v>
+        <v>0.9514735698558673</v>
       </c>
       <c r="G113">
         <v>0.0007552299675251114</v>
@@ -4418,10 +4418,10 @@
         <v>242</v>
       </c>
       <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
         <v>1</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         <v>243</v>
       </c>
       <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
         <v>1</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         <v>244</v>
       </c>
       <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
         <v>1</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.3327876146430233</v>
+        <v>0.1963599378367162</v>
       </c>
       <c r="E117">
-        <v>0.6664441381767208</v>
+        <v>0.8028718149830278</v>
       </c>
       <c r="F117">
         <v>0.0007682471802559352</v>
@@ -4534,10 +4534,10 @@
         <v>246</v>
       </c>
       <c r="D118">
-        <v>0.2297357814599194</v>
+        <v>0.0625167935512763</v>
       </c>
       <c r="E118">
-        <v>0.7683833407971339</v>
+        <v>0.935602328705777</v>
       </c>
       <c r="F118">
         <v>0.001880877742946708</v>
@@ -4563,10 +4563,10 @@
         <v>247</v>
       </c>
       <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
         <v>1</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4592,10 +4592,10 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <v>0.353053260919173</v>
+        <v>0.003651134133540231</v>
       </c>
       <c r="E120">
-        <v>0.6375336588927936</v>
+        <v>0.9869357856784263</v>
       </c>
       <c r="F120">
         <v>0.009413080188033407</v>
@@ -4621,10 +4621,10 @@
         <v>249</v>
       </c>
       <c r="D121">
-        <v>0.4949308755760369</v>
+        <v>0.003686635944700461</v>
       </c>
       <c r="E121">
-        <v>0.2866359447004608</v>
+        <v>0.7778801843317973</v>
       </c>
       <c r="F121">
         <v>0.2184331797235023</v>
@@ -4650,10 +4650,10 @@
         <v>250</v>
       </c>
       <c r="D122">
-        <v>0.47633959638135</v>
+        <v>0.007654836464857342</v>
       </c>
       <c r="E122">
-        <v>0.477035490605428</v>
+        <v>0.9457202505219207</v>
       </c>
       <c r="F122">
         <v>0.04662491301322199</v>

--- a/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
+++ b/07_calc_country_stats/02_soil_c_stats/02_combine_tile_stats/country_total_soil_c_hists_summary.xlsx
@@ -1170,22 +1170,22 @@
         <v>130</v>
       </c>
       <c r="D2">
-        <v>0.04278358296573355</v>
+        <v>0.5552104124385703</v>
       </c>
       <c r="E2">
-        <v>0.9199308968316533</v>
+        <v>0.4419784975092669</v>
       </c>
       <c r="F2">
-        <v>0.03728552020261317</v>
+        <v>0.002076449573136982</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005669143422619546</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001408899548816692</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.683618188222271E-05</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1199,10 +1199,10 @@
         <v>131</v>
       </c>
       <c r="D3">
-        <v>0.02777777777777778</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="E3">
-        <v>0.9722222222222222</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>132</v>
       </c>
       <c r="D4">
-        <v>0.04526531808853709</v>
+        <v>0.9684667253004984</v>
       </c>
       <c r="E4">
-        <v>0.9336147757255937</v>
+        <v>0.03153327469950161</v>
       </c>
       <c r="F4">
-        <v>0.02111990618586925</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>133</v>
       </c>
       <c r="D5">
-        <v>0.0345821325648415</v>
+        <v>0.9668587896253602</v>
       </c>
       <c r="E5">
-        <v>0.9654178674351584</v>
+        <v>0.03314121037463977</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>134</v>
       </c>
       <c r="D6">
+        <v>0.3846638040851679</v>
+      </c>
+      <c r="E6">
+        <v>0.5955997023775245</v>
+      </c>
+      <c r="F6">
+        <v>0.0196696897308728</v>
+      </c>
+      <c r="G6">
+        <v>6.622791155176028E-05</v>
+      </c>
+      <c r="H6">
         <v>5.758948830587851E-07</v>
-      </c>
-      <c r="E6">
-        <v>0.06743383543688537</v>
-      </c>
-      <c r="F6">
-        <v>0.9310486815462548</v>
-      </c>
-      <c r="G6">
-        <v>0.00151690712197684</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>135</v>
       </c>
       <c r="D7">
-        <v>0.03902493990384615</v>
+        <v>0.9410682091346154</v>
       </c>
       <c r="E7">
-        <v>0.8984625400641025</v>
+        <v>0.05893179086538462</v>
       </c>
       <c r="F7">
-        <v>0.06191155849358974</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0006009615384615385</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>136</v>
       </c>
       <c r="D8">
-        <v>0.001722239581008496</v>
+        <v>0.2383311758841822</v>
       </c>
       <c r="E8">
-        <v>0.8620887827523099</v>
+        <v>0.7584903063577795</v>
       </c>
       <c r="F8">
-        <v>0.1361889776666815</v>
+        <v>0.003178517758038358</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>137</v>
       </c>
       <c r="D9">
-        <v>0.01462660914401785</v>
+        <v>0.5049400612841902</v>
       </c>
       <c r="E9">
-        <v>0.934545707068515</v>
+        <v>0.4924818360951728</v>
       </c>
       <c r="F9">
-        <v>0.05082768378746712</v>
+        <v>0.002574630428555308</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.472192081665958E-06</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.09965986674682721</v>
       </c>
       <c r="E10">
-        <v>0.7410704726452155</v>
+        <v>0.8965434884659413</v>
       </c>
       <c r="F10">
-        <v>0.2589295273547845</v>
+        <v>0.003796644787231414</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>139</v>
       </c>
       <c r="D11">
-        <v>0.1579012951410793</v>
+        <v>0.9905272202882072</v>
       </c>
       <c r="E11">
-        <v>0.8318808750574364</v>
+        <v>0.00947277971179282</v>
       </c>
       <c r="F11">
-        <v>0.01021782980148439</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>0.0877642536835362</v>
+        <v>0.9897501601537476</v>
       </c>
       <c r="E12">
-        <v>0.9122357463164638</v>
+        <v>0.0102498398462524</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1489,13 +1489,13 @@
         <v>141</v>
       </c>
       <c r="D13">
-        <v>0.4242766233361111</v>
+        <v>0.7853366102344485</v>
       </c>
       <c r="E13">
-        <v>0.5757189203160442</v>
+        <v>0.2146622756785904</v>
       </c>
       <c r="F13">
-        <v>4.456347844687365E-06</v>
+        <v>1.114086961171841E-06</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1518,16 +1518,16 @@
         <v>142</v>
       </c>
       <c r="D14">
-        <v>0.3723480446184658</v>
+        <v>0.496030912139705</v>
       </c>
       <c r="E14">
-        <v>0.6274375259995626</v>
+        <v>0.4988399370435335</v>
       </c>
       <c r="F14">
-        <v>0.0002144293819716353</v>
+        <v>0.005120573641482651</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>8.577175278865411E-06</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1547,16 +1547,16 @@
         <v>143</v>
       </c>
       <c r="D15">
-        <v>0.2208381120423467</v>
+        <v>0.153542126157918</v>
       </c>
       <c r="E15">
-        <v>0.7789148654609617</v>
+        <v>0.823555359505955</v>
       </c>
       <c r="F15">
-        <v>0.000247022496691663</v>
+        <v>0.02256726951918835</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0003352448169386855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>144</v>
       </c>
       <c r="D16">
-        <v>0.002424265717971323</v>
+        <v>0.3149566048749552</v>
       </c>
       <c r="E16">
-        <v>0.9692964777042982</v>
+        <v>0.6848127872089476</v>
       </c>
       <c r="F16">
-        <v>0.02827925657773048</v>
+        <v>0.0002258035845117958</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4.323898426821622E-06</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>4.804331585357358E-07</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1605,16 +1605,16 @@
         <v>145</v>
       </c>
       <c r="D17">
-        <v>0.000239096216302377</v>
+        <v>0.615620952798422</v>
       </c>
       <c r="E17">
-        <v>0.9647173683476459</v>
+        <v>0.3843113032736257</v>
       </c>
       <c r="F17">
-        <v>0.03504353543605172</v>
+        <v>5.977405407559426E-05</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>7.9698738767459E-06</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>146</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.7636295038671949</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.2363704961328051</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>147</v>
       </c>
       <c r="D19">
-        <v>0.1139040511882465</v>
+        <v>0.6455971840634315</v>
       </c>
       <c r="E19">
-        <v>0.8858131891356154</v>
+        <v>0.3543969858401533</v>
       </c>
       <c r="F19">
-        <v>0.0002827596761381441</v>
+        <v>5.830096415219467E-06</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>148</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3356890459363958</v>
       </c>
       <c r="E20">
-        <v>0.3632780646914923</v>
+        <v>0.6591465072030444</v>
       </c>
       <c r="F20">
-        <v>0.6367219353085077</v>
+        <v>0.00502854036422941</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0001359064963305246</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>149</v>
       </c>
       <c r="D21">
-        <v>0.0003092063049489095</v>
+        <v>0.1811770215032431</v>
       </c>
       <c r="E21">
-        <v>0.6456227647333229</v>
+        <v>0.8130767457198161</v>
       </c>
       <c r="F21">
-        <v>0.3540644543223646</v>
+        <v>0.005746232776940716</v>
       </c>
       <c r="G21">
-        <v>3.574639363571208E-06</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>0.02771405357612254</v>
+        <v>0.4672437689679069</v>
       </c>
       <c r="E22">
-        <v>0.7390254976461873</v>
+        <v>0.5279171744688986</v>
       </c>
       <c r="F22">
-        <v>0.2332604487776901</v>
+        <v>0.004839056563194494</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1779,22 +1779,22 @@
         <v>151</v>
       </c>
       <c r="D23">
-        <v>0.005003908140146124</v>
+        <v>0.1295647790267596</v>
       </c>
       <c r="E23">
-        <v>0.6074997113092249</v>
+        <v>0.8539424810442715</v>
       </c>
       <c r="F23">
-        <v>0.3868086157929476</v>
+        <v>0.01639672188319171</v>
       </c>
       <c r="G23">
-        <v>0.0006877647576814355</v>
+        <v>9.229616300984611E-05</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.024181855893335E-06</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.69770091139441E-06</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1808,13 +1808,13 @@
         <v>152</v>
       </c>
       <c r="D24">
-        <v>0.7835944934113391</v>
+        <v>0.7972728157263773</v>
       </c>
       <c r="E24">
-        <v>0.2084086879986574</v>
+        <v>0.2017559794261679</v>
       </c>
       <c r="F24">
-        <v>0.007996818590003374</v>
+        <v>0.0009712048474547827</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1837,13 +1837,13 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>0.01910344380550231</v>
+        <v>0.2713837264216463</v>
       </c>
       <c r="E25">
-        <v>0.868285320072969</v>
+        <v>0.7216805104129048</v>
       </c>
       <c r="F25">
-        <v>0.1126112361215287</v>
+        <v>0.006935763165448972</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1866,13 +1866,13 @@
         <v>154</v>
       </c>
       <c r="D26">
-        <v>0.0878594249201278</v>
+        <v>0.4282831679838574</v>
       </c>
       <c r="E26">
-        <v>0.912056499075164</v>
+        <v>0.5691104758701866</v>
       </c>
       <c r="F26">
-        <v>8.407600470825626E-05</v>
+        <v>0.002606356145955944</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>155</v>
       </c>
       <c r="D27">
-        <v>0.05310821020819342</v>
+        <v>0.3242318670248489</v>
       </c>
       <c r="E27">
-        <v>0.8906337446832326</v>
+        <v>0.6139974395567495</v>
       </c>
       <c r="F27">
-        <v>0.05625804510857399</v>
+        <v>0.06157131464069845</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.0001818894112379673</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1.748936646518917E-05</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1924,16 +1924,16 @@
         <v>156</v>
       </c>
       <c r="D28">
-        <v>0.01223147404661599</v>
+        <v>0.3581116012011484</v>
       </c>
       <c r="E28">
-        <v>0.8409468392859107</v>
+        <v>0.6257080945519342</v>
       </c>
       <c r="F28">
-        <v>0.1468216866674733</v>
+        <v>0.01615830519287671</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2.199905404067625E-05</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1953,13 +1953,13 @@
         <v>157</v>
       </c>
       <c r="D29">
-        <v>0.006282124500285551</v>
+        <v>0.8515134209023415</v>
       </c>
       <c r="E29">
-        <v>0.9914334665905197</v>
+        <v>0.1484865790976585</v>
       </c>
       <c r="F29">
-        <v>0.002284408909194746</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>158</v>
       </c>
       <c r="D30">
-        <v>0.1539468659647591</v>
+        <v>0.3203044023784845</v>
       </c>
       <c r="E30">
-        <v>0.8460531340352409</v>
+        <v>0.6233975233211499</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.05618896950520975</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.0001091047951557471</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2011,22 +2011,22 @@
         <v>159</v>
       </c>
       <c r="D31">
-        <v>0.4361607031472481</v>
+        <v>0.5301586400267742</v>
       </c>
       <c r="E31">
-        <v>0.5634185854633461</v>
+        <v>0.4635895371056261</v>
       </c>
       <c r="F31">
-        <v>0.0004207113894058161</v>
+        <v>0.006249585956326889</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1.032420587498935E-06</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>8.603504895824461E-07</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3.441401958329784E-07</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2040,13 +2040,13 @@
         <v>160</v>
       </c>
       <c r="D32">
-        <v>0.001703658132601391</v>
+        <v>0.3878661681889168</v>
       </c>
       <c r="E32">
-        <v>0.8092849368226775</v>
+        <v>0.6121338318110833</v>
       </c>
       <c r="F32">
-        <v>0.189011405044721</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2069,13 +2069,13 @@
         <v>161</v>
       </c>
       <c r="D33">
-        <v>0.002961950330371383</v>
+        <v>0.9924812030075187</v>
       </c>
       <c r="E33">
-        <v>0.9965823650034177</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="F33">
-        <v>0.000455684666210982</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2098,19 +2098,19 @@
         <v>162</v>
       </c>
       <c r="D34">
-        <v>0.001311031896641247</v>
+        <v>0.0730087457100133</v>
       </c>
       <c r="E34">
-        <v>0.6950578592048884</v>
+        <v>0.8954105003252207</v>
       </c>
       <c r="F34">
-        <v>0.3035892443189675</v>
+        <v>0.03135457649628266</v>
       </c>
       <c r="G34">
-        <v>4.186457950292064E-05</v>
+        <v>0.0002216466698358093</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>4.530798647502234E-06</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>163</v>
       </c>
       <c r="D35">
-        <v>0.01234737275346412</v>
+        <v>0.6485114556180546</v>
       </c>
       <c r="E35">
-        <v>0.9865550830017835</v>
+        <v>0.3514885443819454</v>
       </c>
       <c r="F35">
-        <v>0.001097544244752367</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2156,22 +2156,22 @@
         <v>164</v>
       </c>
       <c r="D36">
-        <v>0.0004155264122006223</v>
+        <v>0.1641665357692691</v>
       </c>
       <c r="E36">
-        <v>0.9346951473844557</v>
+        <v>0.8307572763072478</v>
       </c>
       <c r="F36">
-        <v>0.06488932620334363</v>
+        <v>0.005053522846454026</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.916946813408569E-05</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3.044562586001845E-06</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4.510463090373104E-07</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2185,13 +2185,13 @@
         <v>165</v>
       </c>
       <c r="D37">
-        <v>0.0441153561917153</v>
+        <v>0.6091169326748245</v>
       </c>
       <c r="E37">
-        <v>0.9157983547249006</v>
+        <v>0.3896343431548854</v>
       </c>
       <c r="F37">
-        <v>0.04008628908338412</v>
+        <v>0.001248724170290085</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2243,16 +2243,16 @@
         <v>167</v>
       </c>
       <c r="D39">
-        <v>0.2446341189569513</v>
+        <v>0.07038450022923119</v>
       </c>
       <c r="E39">
-        <v>0.7489684596599894</v>
+        <v>0.8973898052938369</v>
       </c>
       <c r="F39">
-        <v>0.006392743195576306</v>
+        <v>0.03197424189971837</v>
       </c>
       <c r="G39">
-        <v>4.678187483041571E-06</v>
+        <v>0.0002514525772134844</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>168</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.274981765134938</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0.7242888402625821</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.0007293946024799417</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>169</v>
       </c>
       <c r="D41">
-        <v>0.03784188834769577</v>
+        <v>0.9998126639190709</v>
       </c>
       <c r="E41">
-        <v>0.9496065942300487</v>
+        <v>0.000187336080929187</v>
       </c>
       <c r="F41">
-        <v>0.01255151742225553</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>170</v>
       </c>
       <c r="D42">
-        <v>0.1385001254075746</v>
+        <v>0.9660270880361174</v>
       </c>
       <c r="E42">
-        <v>0.8535866566340607</v>
+        <v>0.03397291196388262</v>
       </c>
       <c r="F42">
-        <v>0.007913217958364685</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>171</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>0.1840796019900497</v>
+        <v>0.4715312327252626</v>
       </c>
       <c r="E44">
-        <v>0.8159203980099502</v>
+        <v>0.5284687672747375</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2417,16 +2417,16 @@
         <v>173</v>
       </c>
       <c r="D45">
-        <v>0.2101998657055938</v>
+        <v>0.6456143626497108</v>
       </c>
       <c r="E45">
-        <v>0.7864213624030476</v>
+        <v>0.3221892386329377</v>
       </c>
       <c r="F45">
-        <v>0.003378771891358566</v>
+        <v>0.03197114725792748</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0002252514594239044</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2446,19 +2446,19 @@
         <v>174</v>
       </c>
       <c r="D46">
-        <v>0.0007192315602081235</v>
+        <v>0.09450940709510405</v>
       </c>
       <c r="E46">
-        <v>0.3077336730902896</v>
+        <v>0.7670608308500506</v>
       </c>
       <c r="F46">
-        <v>0.6915061876599351</v>
+        <v>0.1370548917973017</v>
       </c>
       <c r="G46">
-        <v>4.090768956716318E-05</v>
+        <v>0.001359994734064688</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1.487552347896843E-05</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>175</v>
       </c>
       <c r="D47">
-        <v>0.02623906705539359</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="E47">
-        <v>0.9737609329446064</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2504,16 +2504,16 @@
         <v>176</v>
       </c>
       <c r="D48">
-        <v>0.0259584596210513</v>
+        <v>0.4699429747617587</v>
       </c>
       <c r="E48">
-        <v>0.9715646998903715</v>
+        <v>0.5274058057035766</v>
       </c>
       <c r="F48">
-        <v>0.002476840488577185</v>
+        <v>0.002650232483460312</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>9.870512042682726E-07</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>177</v>
       </c>
       <c r="D49">
-        <v>0.1679573441665609</v>
+        <v>0.9796242224197029</v>
       </c>
       <c r="E49">
-        <v>0.8320426558334392</v>
+        <v>0.02037577758029707</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>178</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.7573839662447257</v>
       </c>
       <c r="E50">
-        <v>0.7953586497890295</v>
+        <v>0.2426160337552743</v>
       </c>
       <c r="F50">
-        <v>0.2046413502109705</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>179</v>
       </c>
       <c r="D51">
-        <v>0.03732072265495821</v>
+        <v>0.1517809445798334</v>
       </c>
       <c r="E51">
-        <v>0.9622391924824347</v>
+        <v>0.8463900322050542</v>
       </c>
       <c r="F51">
-        <v>0.0004400848626070322</v>
+        <v>0.001829023215112463</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2620,16 +2620,16 @@
         <v>180</v>
       </c>
       <c r="D52">
-        <v>0.006488341167715426</v>
+        <v>0.3317928465887828</v>
       </c>
       <c r="E52">
-        <v>0.7243573423235832</v>
+        <v>0.6519764986130341</v>
       </c>
       <c r="F52">
-        <v>0.2691477819227717</v>
+        <v>0.01620652709628888</v>
       </c>
       <c r="G52">
-        <v>6.53458592967931E-06</v>
+        <v>2.412770189420053E-05</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>181</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>182</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.9542857142857143</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2707,10 +2707,10 @@
         <v>183</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.9587736464448793</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.04122635355512068</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>184</v>
       </c>
       <c r="D56">
-        <v>0.00488607361397251</v>
+        <v>0.1669665754435596</v>
       </c>
       <c r="E56">
-        <v>0.9489462193659481</v>
+        <v>0.8314898065865133</v>
       </c>
       <c r="F56">
-        <v>0.04616770702007934</v>
+        <v>0.001543617969927124</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2765,13 +2765,13 @@
         <v>185</v>
       </c>
       <c r="D57">
-        <v>0.004701211867948182</v>
+        <v>0.6340367739239449</v>
       </c>
       <c r="E57">
-        <v>0.8745298788132052</v>
+        <v>0.3629335562055996</v>
       </c>
       <c r="F57">
-        <v>0.1207689093188466</v>
+        <v>0.003029669870455495</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>186</v>
       </c>
       <c r="D58">
-        <v>0.2181922178035908</v>
+        <v>0.6442577464726214</v>
       </c>
       <c r="E58">
-        <v>0.7307923832372953</v>
+        <v>0.3543155667390745</v>
       </c>
       <c r="F58">
-        <v>0.05101150363040106</v>
+        <v>0.001426233843105037</v>
       </c>
       <c r="G58">
-        <v>3.895328712748768E-06</v>
+        <v>4.529451991568334E-07</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2823,19 +2823,19 @@
         <v>187</v>
       </c>
       <c r="D59">
-        <v>0.001220598423118794</v>
+        <v>0.1244350608649754</v>
       </c>
       <c r="E59">
-        <v>0.9987794015768812</v>
+        <v>0.8671856959060469</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.007884406030415993</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.0004288589054201168</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>6.597829314155642E-05</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2852,16 +2852,16 @@
         <v>188</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="E60">
-        <v>0.198989898989899</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="F60">
-        <v>0.8005050505050505</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0.0005050505050505051</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2881,10 +2881,10 @@
         <v>189</v>
       </c>
       <c r="D61">
-        <v>0.9957309160331598</v>
+        <v>0.9834873200030423</v>
       </c>
       <c r="E61">
-        <v>0.004269083966840212</v>
+        <v>0.01651267999695767</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>190</v>
       </c>
       <c r="D62">
-        <v>0.4351891202719932</v>
+        <v>0.9719507012324692</v>
       </c>
       <c r="E62">
-        <v>0.5648108797280068</v>
+        <v>0.02804929876753081</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2939,13 +2939,13 @@
         <v>191</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.8658054596052019</v>
       </c>
       <c r="E63">
-        <v>0.921462680425767</v>
+        <v>0.1341512273824864</v>
       </c>
       <c r="F63">
-        <v>0.07853731957423309</v>
+        <v>4.331301231172375E-05</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2968,16 +2968,16 @@
         <v>192</v>
       </c>
       <c r="D64">
-        <v>7.520206467813516E-05</v>
+        <v>0.2491215526937598</v>
       </c>
       <c r="E64">
-        <v>0.8757841722541437</v>
+        <v>0.7267783653468886</v>
       </c>
       <c r="F64">
-        <v>0.1241406256811781</v>
+        <v>0.0240739247194636</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2.615723988804701E-05</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>193</v>
       </c>
       <c r="D65">
-        <v>0.3968159531689074</v>
+        <v>0.288125959490255</v>
       </c>
       <c r="E65">
-        <v>0.6031840468310925</v>
+        <v>0.7036828489622897</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.008175255377129471</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1.062411355052563E-05</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>5.312056775262814E-06</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>194</v>
       </c>
       <c r="D66">
-        <v>0.7740514881516588</v>
+        <v>0.5554229383886256</v>
       </c>
       <c r="E66">
-        <v>0.2258108056872038</v>
+        <v>0.4445094218009479</v>
       </c>
       <c r="F66">
-        <v>0.0001377061611374408</v>
+        <v>6.551658767772512E-05</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2.123222748815166E-06</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>195</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.8255813953488372</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         <v>196</v>
       </c>
       <c r="D68">
-        <v>0.1490121090864533</v>
+        <v>0.233682366460144</v>
       </c>
       <c r="E68">
-        <v>0.8450280183957176</v>
+        <v>0.7408073088102298</v>
       </c>
       <c r="F68">
-        <v>0.005959789835987338</v>
+        <v>0.02514330003404838</v>
       </c>
       <c r="G68">
+        <v>0.0003668593318943385</v>
+      </c>
+      <c r="H68">
         <v>8.268184176117614E-08</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="I68">
-        <v>0</v>
+        <v>8.268184176117614E-08</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3113,10 +3113,10 @@
         <v>197</v>
       </c>
       <c r="D69">
-        <v>0.02564102564102564</v>
+        <v>0.8803418803418803</v>
       </c>
       <c r="E69">
-        <v>0.9743589743589743</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3142,13 +3142,13 @@
         <v>198</v>
       </c>
       <c r="D70">
-        <v>0.06823965995096472</v>
+        <v>0.3002744909924315</v>
       </c>
       <c r="E70">
-        <v>0.9290087677219913</v>
+        <v>0.6883927619656753</v>
       </c>
       <c r="F70">
-        <v>0.002751572327044025</v>
+        <v>0.01133274704189319</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>199</v>
       </c>
       <c r="D71">
-        <v>0.04745673833245936</v>
+        <v>0.9016780283167278</v>
       </c>
       <c r="E71">
-        <v>0.9525432616675407</v>
+        <v>0.09307813319349764</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.004719454640797064</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>0.0005243838489774515</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>201</v>
       </c>
       <c r="D73">
-        <v>0.0001892401060151562</v>
+        <v>0.3154371429491951</v>
       </c>
       <c r="E73">
-        <v>0.8019917690728082</v>
+        <v>0.6581079041658259</v>
       </c>
       <c r="F73">
-        <v>0.1978189908211766</v>
+        <v>0.02644172642595642</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1.322645902256468E-05</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>202</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.3729308666017527</v>
       </c>
       <c r="E74">
-        <v>0.9892891918208374</v>
+        <v>0.6270691333982473</v>
       </c>
       <c r="F74">
-        <v>0.01071080817916261</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3287,13 +3287,13 @@
         <v>203</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.3047919574407832</v>
       </c>
       <c r="E75">
-        <v>0.1471772154459211</v>
+        <v>0.6916884115136436</v>
       </c>
       <c r="F75">
-        <v>0.8528227845540789</v>
+        <v>0.003519631045573154</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>204</v>
       </c>
       <c r="D76">
-        <v>0.1140247879973907</v>
+        <v>0.993085453359426</v>
       </c>
       <c r="E76">
-        <v>0.8859752120026093</v>
+        <v>0.006914546640574038</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>205</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3374,16 +3374,16 @@
         <v>206</v>
       </c>
       <c r="D78">
-        <v>0.03288639032603415</v>
+        <v>0.314814203449463</v>
       </c>
       <c r="E78">
-        <v>0.7955884225568661</v>
+        <v>0.5787165205416138</v>
       </c>
       <c r="F78">
-        <v>0.1715251871170997</v>
+        <v>0.1063655185749388</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.0001037574339843326</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>207</v>
       </c>
       <c r="D79">
-        <v>0.0276566187486534</v>
+        <v>0.6038997479669501</v>
       </c>
       <c r="E79">
-        <v>0.9357447250935729</v>
+        <v>0.37525554046809</v>
       </c>
       <c r="F79">
-        <v>0.03656170300184891</v>
+        <v>0.02072570987638856</v>
       </c>
       <c r="G79">
-        <v>3.695315592478091E-05</v>
+        <v>0.0001190016885713284</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>208</v>
       </c>
       <c r="D80">
-        <v>0.5176501896820321</v>
+        <v>0.7420191941728039</v>
       </c>
       <c r="E80">
-        <v>0.4823459658448465</v>
+        <v>0.2579773885177549</v>
       </c>
       <c r="F80">
-        <v>3.844473121366172E-06</v>
+        <v>3.417309441214375E-06</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>209</v>
       </c>
       <c r="D81">
-        <v>5.338743259836634E-05</v>
+        <v>0.3556937696866158</v>
       </c>
       <c r="E81">
-        <v>0.5276013026533554</v>
+        <v>0.6440926805829907</v>
       </c>
       <c r="F81">
-        <v>0.4723453099140462</v>
+        <v>0.0002135497303934654</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3490,13 +3490,13 @@
         <v>210</v>
       </c>
       <c r="D82">
-        <v>0.641458274220738</v>
+        <v>0.9667431906083426</v>
       </c>
       <c r="E82">
-        <v>0.3585326218073508</v>
+        <v>0.03312631912759672</v>
       </c>
       <c r="F82">
-        <v>9.103971911211997E-06</v>
+        <v>0.0001304902640607053</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3519,13 +3519,13 @@
         <v>211</v>
       </c>
       <c r="D83">
-        <v>0.2234490415150216</v>
+        <v>0.9653387371267843</v>
       </c>
       <c r="E83">
-        <v>0.7647615601677553</v>
+        <v>0.03466126287321573</v>
       </c>
       <c r="F83">
-        <v>0.01178939831722306</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>212</v>
       </c>
       <c r="D84">
-        <v>0.001062387399936851</v>
+        <v>0.08483497706209023</v>
       </c>
       <c r="E84">
-        <v>0.9441243661893353</v>
+        <v>0.8894857079177578</v>
       </c>
       <c r="F84">
-        <v>0.05481324641072789</v>
+        <v>0.02567931502015193</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3577,13 +3577,13 @@
         <v>213</v>
       </c>
       <c r="D85">
-        <v>0.007736943907156673</v>
+        <v>0.5730174081237911</v>
       </c>
       <c r="E85">
-        <v>0.9792069632495164</v>
+        <v>0.4269825918762089</v>
       </c>
       <c r="F85">
-        <v>0.01305609284332689</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3606,16 +3606,16 @@
         <v>214</v>
       </c>
       <c r="D86">
-        <v>0.3790812192694594</v>
+        <v>0.3138372062909509</v>
       </c>
       <c r="E86">
-        <v>0.6196571868305876</v>
+        <v>0.586940838275501</v>
       </c>
       <c r="F86">
-        <v>0.001261593899953014</v>
+        <v>0.09847461828460226</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.0007473371489457736</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0.4767136097106288</v>
+        <v>0.3296947262780787</v>
       </c>
       <c r="E87">
-        <v>0.5231419577899743</v>
+        <v>0.6591110105212376</v>
       </c>
       <c r="F87">
-        <v>0.0001444324993969571</v>
+        <v>0.01119426320068375</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0.9053571428571429</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.09464285714285714</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3693,13 +3693,13 @@
         <v>217</v>
       </c>
       <c r="D89">
-        <v>0.02145855107085386</v>
+        <v>0.9773304135768676</v>
       </c>
       <c r="E89">
-        <v>0.9741784037558685</v>
+        <v>0.02266958642313243</v>
       </c>
       <c r="F89">
-        <v>0.004363045173277592</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3722,13 +3722,13 @@
         <v>218</v>
       </c>
       <c r="D90">
-        <v>0.03953786906290115</v>
+        <v>0.9549422336328627</v>
       </c>
       <c r="E90">
-        <v>0.9600770218228498</v>
+        <v>0.04505776636713735</v>
       </c>
       <c r="F90">
-        <v>0.0003851091142490372</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>219</v>
       </c>
       <c r="D91">
-        <v>0.4642338945897356</v>
+        <v>0.3377757589262758</v>
       </c>
       <c r="E91">
-        <v>0.5351570889416121</v>
+        <v>0.6341136945016098</v>
       </c>
       <c r="F91">
-        <v>0.0006090164686522889</v>
+        <v>0.02773243204273602</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.0003771062239668146</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1.008305411675975E-06</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3780,13 +3780,13 @@
         <v>220</v>
       </c>
       <c r="D92">
-        <v>5.804504295333179E-05</v>
+        <v>0.5153238913396796</v>
       </c>
       <c r="E92">
-        <v>0.9638959832830276</v>
+        <v>0.4846761086603204</v>
       </c>
       <c r="F92">
-        <v>0.03604597167401904</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3809,13 +3809,13 @@
         <v>221</v>
       </c>
       <c r="D93">
-        <v>0.06808785331140586</v>
+        <v>0.6414628898144875</v>
       </c>
       <c r="E93">
-        <v>0.8700505663741297</v>
+        <v>0.3569524921998678</v>
       </c>
       <c r="F93">
-        <v>0.06186158031446444</v>
+        <v>0.001584617985644683</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>222</v>
       </c>
       <c r="D94">
-        <v>0.1800617553490113</v>
+        <v>0.2418283326055767</v>
       </c>
       <c r="E94">
-        <v>0.8198122387873495</v>
+        <v>0.757819225251076</v>
       </c>
       <c r="F94">
-        <v>0.0001260058636391991</v>
+        <v>0.0003524421433472647</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>223</v>
       </c>
       <c r="D95">
-        <v>0.2736147035415837</v>
+        <v>0.5113012335853562</v>
       </c>
       <c r="E95">
-        <v>0.7261714086748906</v>
+        <v>0.4886216673298846</v>
       </c>
       <c r="F95">
-        <v>0.0002138877835256665</v>
+        <v>7.709908475925189E-05</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>224</v>
       </c>
       <c r="D96">
-        <v>0.189296734579381</v>
+        <v>0.2231405387995969</v>
       </c>
       <c r="E96">
-        <v>0.8105993703961517</v>
+        <v>0.7761945330438126</v>
       </c>
       <c r="F96">
-        <v>0.0001038950244672783</v>
+        <v>0.0006649281565905808</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3925,16 +3925,16 @@
         <v>225</v>
       </c>
       <c r="D97">
-        <v>0.04193580185424416</v>
+        <v>0.6871131587002651</v>
       </c>
       <c r="E97">
-        <v>0.9413064794782798</v>
+        <v>0.3065054190207889</v>
       </c>
       <c r="F97">
-        <v>0.01675771866747602</v>
+        <v>0.006282847463254941</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>9.85748156910354E-05</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>226</v>
       </c>
       <c r="D98">
-        <v>0.2077290912068217</v>
+        <v>0.2856179231748044</v>
       </c>
       <c r="E98">
-        <v>0.79195542341893</v>
+        <v>0.6908363517271322</v>
       </c>
       <c r="F98">
-        <v>0.000315485374248281</v>
+        <v>0.02354272047545148</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>3.00462261188839E-06</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>227</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4012,10 +4012,10 @@
         <v>228</v>
       </c>
       <c r="D100">
-        <v>0.01861702127659574</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="E100">
-        <v>0.9813829787234043</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>229</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4070,16 +4070,16 @@
         <v>230</v>
       </c>
       <c r="D102">
-        <v>0.541077680259343</v>
+        <v>0.5119002718182669</v>
       </c>
       <c r="E102">
-        <v>0.4577481758954747</v>
+        <v>0.4876842161284127</v>
       </c>
       <c r="F102">
-        <v>0.001174143845182258</v>
+        <v>0.0004148509362904658</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>6.611170299449654E-07</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4099,10 +4099,10 @@
         <v>231</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.2346534653465346</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0.7653465346534654</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4128,16 +4128,16 @@
         <v>232</v>
       </c>
       <c r="D104">
-        <v>0.2373446833718658</v>
+        <v>0.6578152278165929</v>
       </c>
       <c r="E104">
-        <v>0.7065822249489186</v>
+        <v>0.3405525586158599</v>
       </c>
       <c r="F104">
-        <v>0.05607048560128464</v>
+        <v>0.001631494649497346</v>
       </c>
       <c r="G104">
-        <v>2.606077930896339E-06</v>
+        <v>7.189180499024384E-07</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4157,10 +4157,10 @@
         <v>233</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>234</v>
       </c>
       <c r="D106">
-        <v>0.05287634714909201</v>
+        <v>0.2238857781864531</v>
       </c>
       <c r="E106">
-        <v>0.9382278977451898</v>
+        <v>0.7759022288411139</v>
       </c>
       <c r="F106">
-        <v>0.008895755105718245</v>
+        <v>0.0002119929724329638</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>235</v>
       </c>
       <c r="D107">
-        <v>0.004543309976060251</v>
+        <v>0.697258287172139</v>
       </c>
       <c r="E107">
-        <v>0.995386792947385</v>
+        <v>0.302741712827861</v>
       </c>
       <c r="F107">
-        <v>6.98970765547731E-05</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -4244,16 +4244,16 @@
         <v>236</v>
       </c>
       <c r="D108">
-        <v>0.01294391972524758</v>
+        <v>0.1928541722129729</v>
       </c>
       <c r="E108">
-        <v>0.7964406290272805</v>
+        <v>0.790432075464201</v>
       </c>
       <c r="F108">
-        <v>0.1906154512474719</v>
+        <v>0.01669719618493603</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1.655613789011228E-05</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4273,16 +4273,16 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.5665883209745762</v>
       </c>
       <c r="E109">
-        <v>0.1182799258474576</v>
+        <v>0.4332958156779661</v>
       </c>
       <c r="F109">
-        <v>0.8382382150423728</v>
+        <v>0.0001158633474576271</v>
       </c>
       <c r="G109">
-        <v>0.04348185911016949</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4302,22 +4302,22 @@
         <v>238</v>
       </c>
       <c r="D110">
-        <v>0.01038606362322498</v>
+        <v>0.326917902061493</v>
       </c>
       <c r="E110">
-        <v>0.8601905277245959</v>
+        <v>0.6597078307675575</v>
       </c>
       <c r="F110">
-        <v>0.1293213245712208</v>
+        <v>0.01335380860257749</v>
       </c>
       <c r="G110">
-        <v>0.0001020840809583127</v>
+        <v>1.670087214041926E-05</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3.548935329839093E-06</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2.087609017552408E-07</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4331,10 +4331,10 @@
         <v>239</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>240</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4389,19 +4389,19 @@
         <v>241</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.2285732544021193</v>
       </c>
       <c r="E113">
-        <v>0.04777120017660762</v>
+        <v>0.756264051634492</v>
       </c>
       <c r="F113">
-        <v>0.9514735698558673</v>
+        <v>0.01491869658926528</v>
       </c>
       <c r="G113">
-        <v>0.0007552299675251114</v>
+        <v>0.0002381879128348428</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>5.809461288654703E-06</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -4418,10 +4418,10 @@
         <v>242</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.1778523489932886</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0.8221476510067114</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         <v>243</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.7679425837320574</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0.2320574162679426</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         <v>244</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.2714570858283433</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0.7285429141716567</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4505,22 +4505,22 @@
         <v>245</v>
       </c>
       <c r="D117">
-        <v>0.1963599378367162</v>
+        <v>0.1626375164323694</v>
       </c>
       <c r="E117">
-        <v>0.8028718149830278</v>
+        <v>0.8134023770383528</v>
       </c>
       <c r="F117">
-        <v>0.0007682471802559352</v>
+        <v>0.02394700928071034</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1.010359175202642E-05</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2.245242611561428E-06</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>7.484142038538093E-07</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4534,13 +4534,13 @@
         <v>246</v>
       </c>
       <c r="D118">
-        <v>0.0625167935512763</v>
+        <v>0.4458575906851769</v>
       </c>
       <c r="E118">
-        <v>0.935602328705777</v>
+        <v>0.5536945812807882</v>
       </c>
       <c r="F118">
-        <v>0.001880877742946708</v>
+        <v>0.0004478280340349306</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>247</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.5028219599794767</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0.4971780400205233</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4592,13 +4592,13 @@
         <v>248</v>
       </c>
       <c r="D120">
-        <v>0.003651134133540231</v>
+        <v>0.183994340742093</v>
       </c>
       <c r="E120">
-        <v>0.9869357856784263</v>
+        <v>0.8143055999269773</v>
       </c>
       <c r="F120">
-        <v>0.009413080188033407</v>
+        <v>0.00170005933092967</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>249</v>
       </c>
       <c r="D121">
-        <v>0.003686635944700461</v>
+        <v>0.6589861751152074</v>
       </c>
       <c r="E121">
-        <v>0.7778801843317973</v>
+        <v>0.335483870967742</v>
       </c>
       <c r="F121">
-        <v>0.2184331797235023</v>
+        <v>0.005529953917050691</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4650,13 +4650,13 @@
         <v>250</v>
       </c>
       <c r="D122">
-        <v>0.007654836464857342</v>
+        <v>0.6109951287404315</v>
       </c>
       <c r="E122">
-        <v>0.9457202505219207</v>
+        <v>0.3872651356993737</v>
       </c>
       <c r="F122">
-        <v>0.04662491301322199</v>
+        <v>0.00173973556019485</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4679,10 +4679,10 @@
         <v>251</v>
       </c>
       <c r="D123">
-        <v>0.3718904693276521</v>
+        <v>0.9003383670656057</v>
       </c>
       <c r="E123">
-        <v>0.6281095306723479</v>
+        <v>0.09966163293439438</v>
       </c>
       <c r="F123">
         <v>0</v>
